--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Topup Location Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52D30D7-F5DA-4F02-90C6-A9159357AD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528CD281-409D-40C6-AA5D-EE8344390FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{C884D303-BD66-45A6-9E33-9537294B91A1}"/>
+    <workbookView xWindow="17110" yWindow="0" windowWidth="17380" windowHeight="13770" xr2:uid="{C884D303-BD66-45A6-9E33-9537294B91A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Item Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,26 @@
   </si>
   <si>
     <t>PARA01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METF02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLUO01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04895005202827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04895103606718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8801260607365</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -54,9 +74,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -96,14 +113,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,16 +454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D71963-1382-4413-8ABC-6C9112CC8BB4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -464,8 +478,24 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>8801260607365</v>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Topup Location Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528CD281-409D-40C6-AA5D-EE8344390FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4E4FC5-A1A3-44D7-A37D-FF19CB5C40B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17110" yWindow="0" windowWidth="17380" windowHeight="13770" xr2:uid="{C884D303-BD66-45A6-9E33-9537294B91A1}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Topup Location Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4E4FC5-A1A3-44D7-A37D-FF19CB5C40B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5156D0-91AC-4BFA-BAA4-260FA0CF4B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17110" yWindow="0" windowWidth="17380" windowHeight="13770" xr2:uid="{C884D303-BD66-45A6-9E33-9537294B91A1}"/>
+    <workbookView xWindow="17490" yWindow="3000" windowWidth="25800" windowHeight="10050" xr2:uid="{C884D303-BD66-45A6-9E33-9537294B91A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Item Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>8801260607365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3499320013789</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D71963-1382-4413-8ABC-6C9112CC8BB4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -498,6 +506,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Topup Location Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5156D0-91AC-4BFA-BAA4-260FA0CF4B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F81B7-2F1C-4945-BD60-639A68BF2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17490" yWindow="3000" windowWidth="25800" windowHeight="10050" xr2:uid="{C884D303-BD66-45A6-9E33-9537294B91A1}"/>
+    <workbookView xWindow="3420" yWindow="3500" windowWidth="25800" windowHeight="10050" xr2:uid="{C884D303-BD66-45A6-9E33-9537294B91A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Item Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>3499320013789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04895011815646</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROP01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,11 +133,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D71963-1382-4413-8ABC-6C9112CC8BB4}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -474,7 +489,7 @@
     <col min="2" max="2" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -490,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -498,7 +513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -506,12 +521,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>18901109320152</v>
       </c>
     </row>
   </sheetData>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Topup Location Checker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F81B7-2F1C-4945-BD60-639A68BF2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CF3B7D-0FA3-48EC-92DC-EF3FF64F660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3500" windowWidth="25800" windowHeight="10050" xr2:uid="{C884D303-BD66-45A6-9E33-9537294B91A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,71 +34,1674 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="520">
+  <si>
+    <t>ADRE12</t>
+  </si>
+  <si>
+    <t>ALUM19</t>
+  </si>
+  <si>
+    <t>AMMO14</t>
+  </si>
+  <si>
+    <t>AQUE10</t>
+  </si>
+  <si>
+    <t>BISA02</t>
+  </si>
+  <si>
+    <t>BROM03</t>
+  </si>
+  <si>
+    <t>CHLO39</t>
+  </si>
+  <si>
+    <t>CHLO43</t>
+  </si>
+  <si>
+    <t>CHLO97</t>
+  </si>
+  <si>
+    <t>DEXT28</t>
+  </si>
+  <si>
+    <t>DIGO06</t>
+  </si>
+  <si>
+    <t>DOPA02</t>
+  </si>
+  <si>
+    <t>ESOM03</t>
+  </si>
+  <si>
+    <t>FAMO02</t>
+  </si>
+  <si>
+    <t>FERR31</t>
+  </si>
+  <si>
+    <t>FLEE01</t>
+  </si>
+  <si>
+    <t>FRUS01</t>
+  </si>
+  <si>
+    <t>FRUS03</t>
+  </si>
+  <si>
+    <t>GELO01</t>
+  </si>
+  <si>
+    <t>GLYC04</t>
+  </si>
+  <si>
+    <t>HEPA03</t>
+  </si>
+  <si>
+    <t>HEPA06</t>
+  </si>
+  <si>
+    <t>HYDR07</t>
+  </si>
+  <si>
+    <t>HYOS01</t>
+  </si>
+  <si>
+    <t>INSU06</t>
+  </si>
+  <si>
+    <t>INSU15</t>
+  </si>
+  <si>
+    <t>LACT05</t>
+  </si>
+  <si>
+    <t>LIGN07</t>
+  </si>
+  <si>
+    <t>LIGN10</t>
+  </si>
+  <si>
+    <t>LIGN18</t>
+  </si>
+  <si>
+    <t>MAGN05</t>
+  </si>
+  <si>
+    <t>METH24</t>
+  </si>
+  <si>
+    <t>METO01</t>
+  </si>
+  <si>
+    <t>METO03</t>
+  </si>
+  <si>
+    <t>METR03</t>
+  </si>
+  <si>
+    <t>PANT01</t>
+  </si>
+  <si>
+    <t>PANT02</t>
+  </si>
+  <si>
+    <t>PARA01</t>
+  </si>
+  <si>
+    <t>PARA04</t>
+  </si>
+  <si>
+    <t>PARA18</t>
+  </si>
+  <si>
+    <t>PHYT04</t>
+  </si>
+  <si>
+    <t>POLY35</t>
+  </si>
+  <si>
+    <t>POTA02</t>
+  </si>
+  <si>
+    <t>POTA62</t>
+  </si>
+  <si>
+    <t>POTA67</t>
+  </si>
+  <si>
+    <t>POTA68</t>
+  </si>
+  <si>
+    <t>POVI05</t>
+  </si>
+  <si>
+    <t>PRED02</t>
+  </si>
+  <si>
+    <t>PROC08</t>
+  </si>
+  <si>
+    <t>PROM09</t>
+  </si>
+  <si>
+    <t>SALB06</t>
+  </si>
+  <si>
+    <t>SODI05</t>
+  </si>
+  <si>
+    <t>SODI07</t>
+  </si>
+  <si>
+    <t>TRAM02</t>
+  </si>
+  <si>
+    <t>TRAN01</t>
+  </si>
+  <si>
+    <t>TRAN02</t>
+  </si>
+  <si>
+    <t>ACET41</t>
+  </si>
+  <si>
+    <t>ALUM01</t>
+  </si>
+  <si>
+    <t>AMLO01</t>
+  </si>
+  <si>
+    <t>ASPI01</t>
+  </si>
+  <si>
+    <t>AUGM04</t>
+  </si>
+  <si>
+    <t>CHLO2O</t>
+  </si>
+  <si>
+    <t>DAIL01</t>
+  </si>
+  <si>
+    <t>DEXA01</t>
+  </si>
+  <si>
+    <t>DEXA10</t>
+  </si>
+  <si>
+    <t>HYPR01</t>
+  </si>
+  <si>
+    <t>INSU02</t>
+  </si>
+  <si>
+    <t>IPRA01</t>
+  </si>
+  <si>
+    <t>ISON02</t>
+  </si>
+  <si>
+    <t>ISOS01</t>
+  </si>
+  <si>
+    <t>MERO02</t>
+  </si>
+  <si>
+    <t>PIPE08</t>
+  </si>
+  <si>
+    <t>POLY07</t>
+  </si>
+  <si>
+    <t>PYRI03</t>
+  </si>
+  <si>
+    <t>SENN01</t>
+  </si>
+  <si>
+    <t>THYM03</t>
+  </si>
+  <si>
+    <t>ZINC18</t>
+  </si>
+  <si>
+    <t>AMPI05</t>
+  </si>
+  <si>
+    <t>BCG 01</t>
+  </si>
+  <si>
+    <t>BENZ26</t>
+  </si>
+  <si>
+    <t>CARB1E</t>
+  </si>
+  <si>
+    <t>CEFA08</t>
+  </si>
+  <si>
+    <t>DEXT1E</t>
+  </si>
+  <si>
+    <t>DICL02</t>
+  </si>
+  <si>
+    <t>DINO03</t>
+  </si>
+  <si>
+    <t>DINO05</t>
+  </si>
+  <si>
+    <t>DIPH14</t>
+  </si>
+  <si>
+    <t>EPHE04</t>
+  </si>
+  <si>
+    <t>FOLI01</t>
+  </si>
+  <si>
+    <t>GENT02</t>
+  </si>
+  <si>
+    <t>HEPA15</t>
+  </si>
+  <si>
+    <t>HEPA39</t>
+  </si>
+  <si>
+    <t>HEPA51</t>
+  </si>
+  <si>
+    <t>HYOS04</t>
+  </si>
+  <si>
+    <t>LIGN05</t>
+  </si>
+  <si>
+    <t>MATE01</t>
+  </si>
+  <si>
+    <t>META14</t>
+  </si>
+  <si>
+    <t>METR01</t>
+  </si>
+  <si>
+    <t>OXYT03</t>
+  </si>
+  <si>
+    <t>PHYT06</t>
+  </si>
+  <si>
+    <t>PROC10</t>
+  </si>
+  <si>
+    <t>SILV02</t>
+  </si>
+  <si>
+    <t>SODI26</t>
+  </si>
+  <si>
+    <t>SYNT01</t>
+  </si>
+  <si>
+    <t>CEFU02</t>
+  </si>
+  <si>
+    <t>CHOR09</t>
+  </si>
+  <si>
+    <t>MEFE01</t>
+  </si>
+  <si>
+    <t>MENO02</t>
+  </si>
+  <si>
+    <t>MISO01</t>
+  </si>
+  <si>
+    <t>NORE01</t>
+  </si>
+  <si>
+    <t>POVI01</t>
+  </si>
+  <si>
+    <t>TRAM01</t>
+  </si>
+  <si>
+    <t>AMPI02</t>
+  </si>
+  <si>
+    <t>ASCO02</t>
+  </si>
+  <si>
+    <t>CALC70</t>
+  </si>
+  <si>
+    <t>CLOX02</t>
+  </si>
+  <si>
+    <t>CLOX05</t>
+  </si>
+  <si>
+    <t>EMLA01</t>
+  </si>
+  <si>
+    <t>METH20</t>
+  </si>
+  <si>
+    <t>METO06</t>
+  </si>
+  <si>
+    <t>PHEN86</t>
+  </si>
+  <si>
+    <t>PYRI04</t>
+  </si>
+  <si>
+    <t>SODI1Y</t>
+  </si>
+  <si>
+    <t>THIA03</t>
+  </si>
+  <si>
+    <t>AMIO02</t>
+  </si>
+  <si>
+    <t>CALC30</t>
+  </si>
+  <si>
+    <t>DILT04</t>
+  </si>
+  <si>
+    <t>GLYC23</t>
+  </si>
+  <si>
+    <t>LABE05</t>
+  </si>
+  <si>
+    <t>PHEN34</t>
+  </si>
+  <si>
+    <t>DILT01</t>
+  </si>
+  <si>
+    <t>HEPA47</t>
+  </si>
+  <si>
+    <t>NYST02</t>
+  </si>
+  <si>
+    <t>ADEN03</t>
+  </si>
+  <si>
+    <t>ALBU06</t>
+  </si>
+  <si>
+    <t>AMIO01</t>
+  </si>
+  <si>
+    <t>ATRO01</t>
+  </si>
+  <si>
+    <t>CALC08</t>
+  </si>
+  <si>
+    <t>CALC16</t>
+  </si>
+  <si>
+    <t>CLOP05</t>
+  </si>
+  <si>
+    <t>DEXM03</t>
+  </si>
+  <si>
+    <t>DOBU01</t>
+  </si>
+  <si>
+    <t>ENOX03</t>
+  </si>
+  <si>
+    <t>ESMO01</t>
+  </si>
+  <si>
+    <t>FACT20</t>
+  </si>
+  <si>
+    <t>FLUM02</t>
+  </si>
+  <si>
+    <t>GRAN04</t>
+  </si>
+  <si>
+    <t>ISOP13</t>
+  </si>
+  <si>
+    <t>NITR39</t>
+  </si>
+  <si>
+    <t>NORA02</t>
+  </si>
+  <si>
+    <t>PARA31</t>
+  </si>
+  <si>
+    <t>POTA20</t>
+  </si>
+  <si>
+    <t>PROC03</t>
+  </si>
+  <si>
+    <t>PROP03</t>
+  </si>
+  <si>
+    <t>PROT12</t>
+  </si>
+  <si>
+    <t>PROT17</t>
+  </si>
+  <si>
+    <t>ROCU01</t>
+  </si>
+  <si>
+    <t>SUXA02</t>
+  </si>
+  <si>
+    <t>TICA01</t>
+  </si>
+  <si>
+    <t>VERA03</t>
+  </si>
+  <si>
+    <t>ALLO01</t>
+  </si>
+  <si>
+    <t>CAPT01</t>
+  </si>
+  <si>
+    <t>WARF01</t>
+  </si>
+  <si>
+    <t>ASPI10</t>
+  </si>
+  <si>
+    <t>CHLO03</t>
+  </si>
+  <si>
+    <t>CHLO4H</t>
+  </si>
+  <si>
+    <t>DIPH27</t>
+  </si>
+  <si>
+    <t>DIPH41</t>
+  </si>
+  <si>
+    <t>FERR10</t>
+  </si>
+  <si>
+    <t>GLYC63</t>
+  </si>
+  <si>
+    <t>HYDR59</t>
+  </si>
+  <si>
+    <t>IBUP06</t>
+  </si>
+  <si>
+    <t>ORAL05</t>
+  </si>
+  <si>
+    <t>PARA03</t>
+  </si>
+  <si>
+    <t>PRED29</t>
+  </si>
+  <si>
+    <t>SALB10</t>
+  </si>
+  <si>
+    <t>SODI20</t>
+  </si>
+  <si>
+    <t>XYLO01</t>
+  </si>
+  <si>
+    <t>ACET04</t>
+  </si>
+  <si>
+    <t>ACET38</t>
+  </si>
+  <si>
+    <t>ADRE03</t>
+  </si>
+  <si>
+    <t>AMET02</t>
+  </si>
+  <si>
+    <t>AMIK03</t>
+  </si>
+  <si>
+    <t>ANUS03</t>
+  </si>
+  <si>
+    <t>BENZ58</t>
+  </si>
+  <si>
+    <t>BETA01</t>
+  </si>
+  <si>
+    <t>CEFT14</t>
+  </si>
+  <si>
+    <t>CHAR02</t>
+  </si>
+  <si>
+    <t>CHLO2V</t>
+  </si>
+  <si>
+    <t>CLOT04</t>
+  </si>
+  <si>
+    <t>COCI01</t>
+  </si>
+  <si>
+    <t>CODE01</t>
+  </si>
+  <si>
+    <t>CROT01</t>
+  </si>
+  <si>
+    <t>DEXA19</t>
+  </si>
+  <si>
+    <t>DIME03</t>
+  </si>
+  <si>
+    <t>DIPH50</t>
+  </si>
+  <si>
+    <t>EMUL05</t>
+  </si>
+  <si>
+    <t>ETOM02</t>
+  </si>
+  <si>
+    <t>FLUO11</t>
+  </si>
+  <si>
+    <t>GLUC37</t>
+  </si>
+  <si>
+    <t>GLYC05</t>
+  </si>
+  <si>
+    <t>HALO08</t>
+  </si>
+  <si>
+    <t>HEPA43</t>
+  </si>
+  <si>
+    <t>KETO12</t>
+  </si>
+  <si>
+    <t>LEVO15</t>
+  </si>
+  <si>
+    <t>LOSA01</t>
+  </si>
+  <si>
+    <t>MAGN32</t>
+  </si>
+  <si>
+    <t>METO09</t>
+  </si>
+  <si>
+    <t>NALO02</t>
+  </si>
+  <si>
+    <t>NICA01</t>
+  </si>
+  <si>
+    <t>OCTR01</t>
+  </si>
+  <si>
+    <t>OLAN05</t>
+  </si>
+  <si>
+    <t>PILO09</t>
+  </si>
+  <si>
+    <t>PLAS12</t>
+  </si>
+  <si>
+    <t>PRAL05</t>
+  </si>
+  <si>
+    <t>PROP04</t>
+  </si>
+  <si>
+    <t>PYRI14</t>
+  </si>
+  <si>
+    <t>RABI01</t>
+  </si>
+  <si>
+    <t>SODI48</t>
+  </si>
+  <si>
+    <t>SODIC7</t>
+  </si>
+  <si>
+    <t>TERB05</t>
+  </si>
+  <si>
+    <t>TERL02</t>
+  </si>
+  <si>
+    <t>THIA13</t>
+  </si>
+  <si>
+    <t>TIMO02</t>
+  </si>
+  <si>
+    <t>TROP04</t>
+  </si>
+  <si>
+    <t>UREA06</t>
+  </si>
+  <si>
+    <t>VALP11</t>
+  </si>
+  <si>
+    <t>HALO14</t>
+  </si>
+  <si>
+    <t>TERB02</t>
+  </si>
+  <si>
+    <t>BUPI04</t>
+  </si>
+  <si>
+    <t>BUPI07</t>
+  </si>
+  <si>
+    <t>DICL11</t>
+  </si>
+  <si>
+    <t>HYAL01</t>
+  </si>
+  <si>
+    <t>METH30</t>
+  </si>
+  <si>
+    <t>NEOS09</t>
+  </si>
+  <si>
+    <t>ONDA03</t>
+  </si>
+  <si>
+    <t>PAPA03</t>
+  </si>
+  <si>
+    <t>PHEN21</t>
+  </si>
+  <si>
+    <t>PHEN85</t>
+  </si>
+  <si>
+    <t>SEVO01</t>
+  </si>
+  <si>
+    <t>ATRA01</t>
+  </si>
+  <si>
+    <t>BUPI08</t>
+  </si>
+  <si>
+    <t>CISA04</t>
+  </si>
+  <si>
+    <t>DANT04</t>
+  </si>
+  <si>
+    <t>DESF02</t>
+  </si>
+  <si>
+    <t>DICL09</t>
+  </si>
+  <si>
+    <t>GLYC11</t>
+  </si>
+  <si>
+    <t>HEPA04</t>
+  </si>
+  <si>
+    <t>HYDR65</t>
+  </si>
+  <si>
+    <t>LEVO21</t>
+  </si>
+  <si>
+    <t>PARE01</t>
+  </si>
+  <si>
+    <t>ROPI02</t>
+  </si>
+  <si>
+    <t>THIO03</t>
+  </si>
+  <si>
+    <t>VASO01</t>
+  </si>
+  <si>
+    <t>XYLO02</t>
+  </si>
+  <si>
+    <t>DURA01</t>
+  </si>
+  <si>
+    <t>BCG 06</t>
+  </si>
+  <si>
+    <t>GLYC12</t>
+  </si>
+  <si>
+    <t>METH1P</t>
+  </si>
+  <si>
+    <t>ALBU10</t>
+  </si>
+  <si>
+    <t>CEFO04</t>
+  </si>
+  <si>
+    <t>CEFT02</t>
+  </si>
+  <si>
+    <t>MILR01</t>
+  </si>
+  <si>
+    <t>MYDR03</t>
+  </si>
+  <si>
+    <t>PHEN10</t>
+  </si>
+  <si>
+    <t>PHOS02</t>
+  </si>
+  <si>
+    <t>PHOS11</t>
+  </si>
+  <si>
+    <t>POTA18</t>
+  </si>
+  <si>
+    <t>SODID1</t>
+  </si>
+  <si>
+    <t>VANC03</t>
+  </si>
+  <si>
+    <t>COTR01</t>
+  </si>
+  <si>
+    <t>CARB72</t>
+  </si>
+  <si>
+    <t>FIBR02</t>
+  </si>
+  <si>
+    <t>POVI04</t>
+  </si>
+  <si>
+    <t>SALB05</t>
+  </si>
+  <si>
+    <t>STRE01</t>
+  </si>
+  <si>
+    <t>AUGM01</t>
+  </si>
+  <si>
+    <t>DESM06</t>
+  </si>
+  <si>
+    <t>DIGO04</t>
+  </si>
+  <si>
+    <t>HEPA52</t>
+  </si>
+  <si>
+    <t>TERB03</t>
+  </si>
+  <si>
+    <t>LIGN74</t>
+  </si>
+  <si>
+    <t>POLY08</t>
+  </si>
+  <si>
+    <t>SODI5M</t>
+  </si>
+  <si>
+    <t>ENOX02</t>
+  </si>
+  <si>
+    <t>PICO03</t>
+  </si>
+  <si>
+    <t>ZOLE01</t>
+  </si>
+  <si>
+    <t>PHEN08</t>
+  </si>
+  <si>
+    <t>POLY16</t>
+  </si>
+  <si>
+    <t>NIFE01</t>
+  </si>
+  <si>
+    <t>COLC02</t>
+  </si>
+  <si>
+    <t>NAPR01</t>
+  </si>
+  <si>
+    <t>ESOM01</t>
+  </si>
+  <si>
+    <t>LOPE01</t>
+  </si>
+  <si>
+    <t>METO07</t>
+  </si>
+  <si>
+    <t>CAFF07</t>
+  </si>
+  <si>
+    <t>CHLO2D</t>
+  </si>
+  <si>
+    <t>CHOL15</t>
+  </si>
+  <si>
+    <t>DEXA30</t>
+  </si>
+  <si>
+    <t>FOLI13</t>
+  </si>
+  <si>
+    <t>GLYC34</t>
+  </si>
+  <si>
+    <t>PROP24</t>
+  </si>
+  <si>
+    <t>TOBR03</t>
+  </si>
+  <si>
+    <t>ALCO37</t>
+  </si>
+  <si>
+    <t>DIME07</t>
+  </si>
+  <si>
+    <t>IODI24</t>
+  </si>
+  <si>
+    <t>LIGN53</t>
+  </si>
+  <si>
+    <t>PHEN12</t>
+  </si>
+  <si>
+    <t>DOCU02</t>
+  </si>
+  <si>
+    <t>BISM07</t>
+  </si>
+  <si>
+    <t>LIQU03</t>
+  </si>
+  <si>
+    <t>NERI04</t>
+  </si>
+  <si>
+    <t>DEXA31</t>
+  </si>
+  <si>
+    <t>HYDR56</t>
+  </si>
+  <si>
+    <t>MAXI02</t>
+  </si>
+  <si>
+    <t>OFLO07</t>
+  </si>
+  <si>
+    <t>OXYM03</t>
+  </si>
+  <si>
+    <t>ATRO16</t>
+  </si>
+  <si>
+    <t>CARB46</t>
+  </si>
+  <si>
+    <t>PHEN50</t>
+  </si>
+  <si>
+    <t>TOBR04</t>
+  </si>
+  <si>
+    <t>DEXT1W</t>
+  </si>
+  <si>
+    <t>CARD03</t>
+  </si>
+  <si>
+    <t>TALC02</t>
+  </si>
+  <si>
+    <t>DINO04</t>
+  </si>
+  <si>
+    <t>CLOS01</t>
+  </si>
+  <si>
+    <t>CORT07</t>
+  </si>
+  <si>
+    <t>DESM02</t>
+  </si>
+  <si>
+    <t>GONA02</t>
+  </si>
+  <si>
+    <t>PROT15</t>
+  </si>
+  <si>
+    <t>TETR10</t>
+  </si>
+  <si>
+    <t>DEPO01</t>
+  </si>
+  <si>
+    <t>ONDA01</t>
+  </si>
+  <si>
+    <t>SUGA03</t>
+  </si>
+  <si>
+    <t>COPH01</t>
+  </si>
+  <si>
+    <t>NEOM05</t>
+  </si>
+  <si>
+    <t>BALA01</t>
+  </si>
+  <si>
+    <t>CHLO4A</t>
+  </si>
+  <si>
+    <t>BROM04</t>
+  </si>
+  <si>
+    <t>PHEN33</t>
+  </si>
+  <si>
+    <t>VALP02</t>
+  </si>
+  <si>
+    <t>VALP03</t>
+  </si>
+  <si>
+    <t>CHLO54</t>
+  </si>
+  <si>
+    <t>COSO01</t>
+  </si>
+  <si>
+    <t>CYCL05</t>
+  </si>
+  <si>
+    <t>CYCL34</t>
+  </si>
+  <si>
+    <t>FLUO12</t>
+  </si>
+  <si>
+    <t>LEVO16</t>
+  </si>
+  <si>
+    <t>MAXI01</t>
+  </si>
+  <si>
+    <t>PILO10</t>
+  </si>
+  <si>
+    <t>PRED09</t>
+  </si>
+  <si>
+    <t>SODIA4</t>
+  </si>
+  <si>
+    <t>ATEN01</t>
+  </si>
+  <si>
+    <t>PHEN31</t>
+  </si>
+  <si>
+    <t>PILO08</t>
+  </si>
+  <si>
+    <t>CALC32</t>
+  </si>
+  <si>
+    <t>GRAN02</t>
+  </si>
+  <si>
+    <t>MESN04</t>
+  </si>
+  <si>
+    <t>PHEN01</t>
+  </si>
+  <si>
+    <t>DIME05</t>
+  </si>
+  <si>
+    <t>MUPI02</t>
+  </si>
+  <si>
+    <t>POVI18</t>
+  </si>
+  <si>
+    <t>TERA01</t>
+  </si>
+  <si>
+    <t>ACET01</t>
+  </si>
+  <si>
+    <t>DEXA16</t>
+  </si>
+  <si>
+    <t>MOXI03</t>
+  </si>
+  <si>
+    <t>ASPI11</t>
+  </si>
+  <si>
+    <t>CEFU07</t>
+  </si>
+  <si>
+    <t>DICL03</t>
+  </si>
+  <si>
+    <t>MEAS03</t>
+  </si>
+  <si>
+    <t>SILV15</t>
+  </si>
+  <si>
+    <t>CYAN02</t>
+  </si>
+  <si>
+    <t>FRUS04</t>
+  </si>
+  <si>
+    <t>AMIN10</t>
+  </si>
+  <si>
+    <t>SODID3</t>
+  </si>
+  <si>
+    <t>AMPH01</t>
+  </si>
+  <si>
+    <t>KANA01</t>
+  </si>
+  <si>
+    <t>NEOM19</t>
+  </si>
+  <si>
+    <t>TIEN01</t>
+  </si>
+  <si>
+    <t>BENZ41</t>
+  </si>
+  <si>
+    <t>CLOT10</t>
+  </si>
+  <si>
+    <t>ISOC02</t>
+  </si>
+  <si>
+    <t>SODIF9</t>
+  </si>
+  <si>
+    <t>TIOC09</t>
+  </si>
+  <si>
+    <t>VERR02</t>
+  </si>
+  <si>
+    <t>ZINC07</t>
+  </si>
+  <si>
+    <t>ONDA04</t>
+  </si>
+  <si>
+    <t>UROK03</t>
+  </si>
+  <si>
+    <t>FERR34</t>
+  </si>
+  <si>
+    <t>FILG04</t>
+  </si>
+  <si>
+    <t>FLUO40</t>
+  </si>
+  <si>
+    <t>ONDA02</t>
+  </si>
+  <si>
+    <t>PENT08</t>
+  </si>
+  <si>
+    <t>TUBE94</t>
+  </si>
+  <si>
+    <t>ZOLE02</t>
+  </si>
+  <si>
+    <t>SALB01</t>
+  </si>
+  <si>
+    <t>ZOPI01</t>
+  </si>
+  <si>
+    <t>FERR36</t>
+  </si>
+  <si>
+    <t>MEDR08</t>
+  </si>
+  <si>
+    <t>TRIP10</t>
+  </si>
+  <si>
+    <t>CEFE04</t>
+  </si>
+  <si>
+    <t>DARB06</t>
+  </si>
+  <si>
+    <t>DARB07</t>
+  </si>
+  <si>
+    <t>ERYT23</t>
+  </si>
+  <si>
+    <t>MIRC02</t>
+  </si>
+  <si>
+    <t>MIRC03</t>
+  </si>
+  <si>
+    <t>MIRC04</t>
+  </si>
+  <si>
+    <t>SULP31</t>
+  </si>
+  <si>
+    <t>TINZ02</t>
+  </si>
+  <si>
+    <t>FLUP04</t>
+  </si>
+  <si>
+    <t>HALO09</t>
+  </si>
+  <si>
+    <t>ZUCL07</t>
+  </si>
+  <si>
+    <t>TRIA03</t>
+  </si>
+  <si>
+    <t>SILV20</t>
+  </si>
+  <si>
+    <t>EPTI01</t>
+  </si>
+  <si>
+    <t>IVAB02</t>
+  </si>
+  <si>
+    <t>SODI3T</t>
+  </si>
   <si>
     <t>Item Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARA01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>METF02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLUO01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04895005202827</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04895103606718</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8801260607365</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ceti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3499320013789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04895011815646</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROP01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>011890602596883910MIPL/A4/UII/91170428</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLUM02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paa114293</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATRO01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0115012727913596219m2v3m26zaw8fz17250630105002386</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEXT28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01189011270405371726022810haf1989a21rfh5h2r596p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPE08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01189011750295771726103110pt0424132a21ps3akcm5r3fsspf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01040477251013281729053110p100752573</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104895011815608102437261727022890hk-38308</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONDA03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104260016656851112411081727110810445161</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6091403221653</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TERA01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010489510360390810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01048950034001641727090110401629</t>
+  </si>
+  <si>
+    <t>8435232322415</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104897038790043172711301030536</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01042600166536211727051410420021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4260016651474</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRAN04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104260016651474112311211726112110347025</t>
+  </si>
+  <si>
+    <t>5060499390506</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104030539913386</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01040305399133931727053111240601102422632</t>
+  </si>
+  <si>
+    <t>8853872005954</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4711916011337</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k1663</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMET02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4891768000052</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66632</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010502169116537821zya0na6s19zsd8_x001D_725073110p04205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4260016653676</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEOS09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01042600166536761726112010347016</t>
+  </si>
+  <si>
+    <t>801500110721</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>METH24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110801500110728</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100303380709489</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100303380705481</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3582910080077</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4987015221216</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4897042583716</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOSA01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104897042583716172703311021869</t>
+  </si>
+  <si>
+    <t>TRAM01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4260016650811</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4897078880025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>301320005455</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4260095681843</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4893776006354</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALB06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010489377600635417260731104v7v_x001D_116270008720025</t>
+  </si>
+  <si>
+    <t>4713680234516</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4895103600723</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>81501070302110454382</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADEN03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6933743787201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3582910029373</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3582910029397</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4719853700321</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4895103600327</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHLO2O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01048951036003271024k131_x001D_727103190hk-50600</t>
+  </si>
+  <si>
+    <t>3700567700029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3582910079750</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3582910008934</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5903856931656</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4897042582306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01048970425823061726063010157960</t>
+  </si>
+  <si>
+    <t>2800941902016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3582910013624</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7613036951586</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4891663133084</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5036376224639</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4893776001939</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>064642022004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104052682053726172704301012uer05</t>
+  </si>
+  <si>
+    <t>01040305399123101727052411240525102421631</t>
+  </si>
+  <si>
+    <t>POTA20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4030539912310</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9329829004343</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010501412417429017270228100149805</t>
+  </si>
+  <si>
+    <t>4260016651306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEXA10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104260016651306112406051726060510423010</t>
+  </si>
+  <si>
+    <t>01041500167651512101657385678683_x001D_725083110f1053-1_x001D_1001676515</t>
+  </si>
+  <si>
+    <t>9313109827159</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4260016650828</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLYC23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104260016650828112406241727062410426001</t>
+  </si>
+  <si>
+    <t>5012727911793</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6091403218424</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4891609560066</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9300670501243</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k1569</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHEN50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5027519001804</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4891663000065</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6091403218738</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,24 +1729,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ReportDataStyle" xfId="1" xr:uid="{5116F1F9-B8F1-4781-AE99-528B258E376D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,39 +1779,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -255,7 +1863,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -366,6 +1974,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -374,13 +1989,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -445,109 +2053,2570 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D71963-1382-4413-8ABC-6C9112CC8BB4}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275B10A-B004-4409-84F2-80D485207F9B}">
+  <dimension ref="A1:B442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4895003400164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B10" s="2">
+        <v>9313109800053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.05014124170056E+31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5014124170056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B81" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B124" s="2">
+        <v>4030539913393</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" s="2">
+        <v>4895158500290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="2">
+        <v>9316626102105</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="2">
+        <v>801500110783</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145" s="2">
+        <v>4891663004926</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B147" s="2">
+        <v>5603690001941</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B153" s="2">
+        <v>9313109836052</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
-        <v>18901109320152</v>
+      <c r="B159" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B170" s="2">
+        <v>4260016653621</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179" s="2">
+        <v>4052682034268</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="2">
+        <v>5702191006704</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" s="2">
+        <v>4891034043271</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B202" s="2">
+        <v>9313109808189</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B221" s="2">
+        <v>8436035566624</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B239" s="2">
+        <v>6091403218042</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B295" s="2">
+        <v>4260016656851</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B314" s="2">
+        <v>6927924801107</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B331" s="2">
+        <v>8901175029570</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B399" s="2">
+        <v>4895103603908</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B420" s="2">
+        <v>4823002246827</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B430" s="2">
+        <v>8435373701452</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A442">
+    <sortCondition ref="A2:A442"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CF3B7D-0FA3-48EC-92DC-EF3FF64F660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD7ADCD-68F7-4EC5-B6DF-5EFE11F46301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="522">
   <si>
     <t>ADRE12</t>
   </si>
@@ -1683,12 +1683,22 @@
   <si>
     <t>6091403218738</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_Matrix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010501412417005617270228100150054</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1737,17 +1747,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2065,11 +2081,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275B10A-B004-4409-84F2-80D485207F9B}">
-  <dimension ref="A1:B442"/>
+  <dimension ref="A1:C442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2077,41 +2091,52 @@
     <col min="2" max="2" width="58" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>417</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2" t="str">
+        <f>LEFT(C3,15)</f>
+        <v>010502169116537</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2" t="str">
+        <f>LEFT(C5,15)</f>
+        <v>010489500340016</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -2119,7 +2144,7 @@
         <v>4895003400164</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
@@ -2127,7 +2152,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>476</v>
       </c>
@@ -2135,12 +2160,12 @@
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2148,20 +2173,24 @@
         <v>9313109800053</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="2" t="str">
+        <f>LEFT(C11,15)</f>
+        <v>010404772510132</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>303</v>
       </c>
@@ -2169,17 +2198,17 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -2282,35 +2311,39 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="2">
-        <v>1.05014124170056E+31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="str">
+        <f>LEFT(C37,15)</f>
+        <v>010501412417005</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>422</v>
       </c>
@@ -2318,52 +2351,52 @@
         <v>5014124170056</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>185</v>
       </c>
@@ -2451,17 +2484,17 @@
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>81</v>
       </c>
@@ -2469,42 +2502,42 @@
         <v>473</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
@@ -2512,12 +2545,12 @@
         <v>496</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>61</v>
       </c>
@@ -2525,20 +2558,24 @@
         <v>481</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="2" t="str">
+        <f>LEFT(C78,15)</f>
+        <v>010489510360032</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -2706,17 +2743,17 @@
         <v>327</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>64</v>
       </c>
@@ -2724,50 +2761,54 @@
         <v>503</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="2" t="str">
+        <f>LEFT(C116,15)</f>
+        <v>010426001665130</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -2775,7 +2816,7 @@
         <v>4030539913393</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>424</v>
       </c>
@@ -2783,20 +2824,24 @@
         <v>443</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="2" t="str">
+        <f>LEFT(C126,15)</f>
+        <v>010403053991339</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>368</v>
       </c>
@@ -2890,7 +2935,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>141</v>
       </c>
@@ -2898,12 +2943,12 @@
         <v>4891663004926</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -2911,12 +2956,12 @@
         <v>5603690001941</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>117</v>
       </c>
@@ -2924,12 +2969,12 @@
         <v>519</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>284</v>
       </c>
@@ -2937,7 +2982,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>142</v>
       </c>
@@ -2945,7 +2990,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>87</v>
       </c>
@@ -2953,22 +2998,22 @@
         <v>9313109836052</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>292</v>
       </c>
@@ -2976,15 +3021,19 @@
         <v>488</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="2" t="str">
+        <f>LEFT(C158,15)</f>
+        <v>010489704258230</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -2992,52 +3041,52 @@
         <v>436</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>15</v>
       </c>
@@ -3045,7 +3094,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>145</v>
       </c>
@@ -3053,53 +3102,61 @@
         <v>4260016653621</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="2" t="str">
+        <f>LEFT(C171,15)</f>
+        <v>010426001665362</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="2" t="str">
+        <f>LEFT(C172,15)</f>
+        <v>011890602596883</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>17</v>
       </c>
@@ -3107,50 +3164,54 @@
         <v>4052682034268</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="2" t="str">
+        <f>LEFT(C182,15)</f>
+        <v>010489703879004</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>127</v>
       </c>
@@ -3158,15 +3219,19 @@
         <v>508</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="2" t="str">
+        <f>LEFT(C189,15)</f>
+        <v>010426001665082</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>300</v>
       </c>
@@ -3174,22 +3239,22 @@
         <v>461</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>146</v>
       </c>
@@ -3197,30 +3262,34 @@
         <v>439</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="2" t="str">
+        <f>LEFT(C195,15)</f>
+        <v>010426001665147</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>20</v>
       </c>
@@ -3228,12 +3297,12 @@
         <v>5702191006704</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>21</v>
       </c>
@@ -3241,7 +3310,7 @@
         <v>4891034043271</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>90</v>
       </c>
@@ -3249,32 +3318,32 @@
         <v>9313109808189</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>232</v>
       </c>
@@ -3469,12 +3538,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>205</v>
       </c>
@@ -3482,28 +3551,36 @@
         <v>462</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="2" t="str">
+        <f>LEFT(C243,15)</f>
+        <v>010489704258371</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="2" t="str">
+        <f>LEFT(C245,15)</f>
+        <v>010501412417429</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>95</v>
       </c>
@@ -3511,52 +3588,52 @@
         <v>492</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
@@ -3564,12 +3641,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>31</v>
       </c>
@@ -3577,25 +3654,29 @@
         <v>455</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="2" t="str">
+        <f>LEFT(C259,15)</f>
+        <v>011080150011072</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>33</v>
       </c>
@@ -3603,92 +3684,92 @@
         <v>460</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>234</v>
       </c>
@@ -3696,65 +3777,69 @@
         <v>452</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="2" t="str">
+        <f>LEFT(C281,15)</f>
+        <v>010426001665367</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>332</v>
       </c>
@@ -3762,20 +3847,24 @@
         <v>495</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="2" t="str">
+        <f>LEFT(C294,15)</f>
+        <v>010426001665685</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>430</v>
       </c>
@@ -3783,50 +3872,54 @@
         <v>4260016656851</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="2" t="str">
+        <f>LEFT(C301,15)</f>
+        <v>011890112704053</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>173</v>
       </c>
@@ -3932,17 +4025,17 @@
         <v>517</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>265</v>
       </c>
@@ -3950,12 +4043,12 @@
         <v>494</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>40</v>
       </c>
@@ -3963,7 +4056,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>99</v>
       </c>
@@ -3971,27 +4064,27 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>71</v>
       </c>
@@ -3999,58 +4092,66 @@
         <v>8901175029570</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="2" t="str">
+        <f>LEFT(C332,15)</f>
+        <v>011890117502957</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="2" t="str">
+        <f>LEFT(C340,15)</f>
+        <v>010403053991231</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>499</v>
       </c>
@@ -4058,169 +4159,185 @@
         <v>500</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="2" t="str">
+        <f>LEFT(C343,15)</f>
+        <v>010030338070948</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="2" t="str">
+        <f>LEFT(C344,15)</f>
+        <v>010030338070548</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="2" t="str">
+        <f>LEFT(C360,15)</f>
+        <v>011501272791359</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="2" t="str">
+        <f>LEFT(C371,15)</f>
+        <v>010489377600635</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>50</v>
       </c>
@@ -4228,7 +4345,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>175</v>
       </c>
@@ -4236,138 +4353,146 @@
         <v>514</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="2" t="str">
+        <f>LEFT(C386,15)</f>
+        <v>010405268205372</v>
+      </c>
+      <c r="C386" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="2" t="str">
+        <f>LEFT(C398,15)</f>
+        <v>010489510360390</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>362</v>
       </c>
@@ -4375,94 +4500,102 @@
         <v>4895103603908</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="2" t="str">
+        <f>LEFT(C402,15)</f>
+        <v>010415001676515</v>
+      </c>
+      <c r="C402" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="2" t="str">
+        <f>LEFT(C416,15)</f>
+        <v>010489501181560</v>
+      </c>
+      <c r="C416" s="2" t="s">
         <v>429</v>
       </c>
     </row>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Topup Location Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD7ADCD-68F7-4EC5-B6DF-5EFE11F46301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2969420F-00A1-45E5-BEE6-0DB515502DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="17380" windowHeight="13770" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1699,7 +1699,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1771,7 +1771,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ReportDataStyle" xfId="1" xr:uid="{5116F1F9-B8F1-4781-AE99-528B258E376D}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1784,10 +1792,22 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1B953E8-69EA-4D46-8892-4ED17C0ABF28}" name="Table1" displayName="Table1" ref="A1:C442" totalsRowShown="0">
+  <autoFilter ref="A1:C442" xr:uid="{F1B953E8-69EA-4D46-8892-4ED17C0ABF28}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{19194287-6099-45FF-8C46-BEBBA636F73A}" name="Item Code" dataDxfId="1" dataCellStyle="ReportDataStyle"/>
+    <tableColumn id="2" xr3:uid="{9CEC65A6-79B1-428F-8CD3-FF8B7AA0540C}" name="Product_ID" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F8A7DC68-EC39-4C9F-BF9D-E22A2E1819C6}" name="Data_Matrix"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1825,7 +1845,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1931,7 +1951,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2073,7 +2093,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2083,35 +2103,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275B10A-B004-4409-84F2-80D485207F9B}">
   <dimension ref="A1:C442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="58" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>417</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>418</v>
       </c>
       <c r="C1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="4" t="str">
         <f>LEFT(C3,15)</f>
         <v>010502169116537</v>
       </c>
@@ -2119,16 +2142,16 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="4" t="str">
         <f>LEFT(C5,15)</f>
         <v>010489500340016</v>
       </c>
@@ -2136,48 +2159,48 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>4895003400164</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>9313109800053</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="4" t="str">
         <f>LEFT(C11,15)</f>
         <v>010404772510132</v>
       </c>
@@ -2185,157 +2208,157 @@
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="2" t="str">
+      <c r="B37" s="4" t="str">
         <f>LEFT(C37,15)</f>
         <v>010501412417005</v>
       </c>
@@ -2343,226 +2366,226 @@
         <v>521</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <v>5014124170056</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="4" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="4" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B78" s="2" t="str">
+      <c r="B78" s="4" t="str">
         <f>LEFT(C78,15)</f>
         <v>010489510360032</v>
       </c>
@@ -2570,202 +2593,202 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="4" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="4" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B116" s="2" t="str">
+      <c r="B116" s="4" t="str">
         <f>LEFT(C116,15)</f>
         <v>010426001665130</v>
       </c>
@@ -2773,62 +2796,62 @@
         <v>505</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="4">
         <v>4030539913393</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="4" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B126" s="2" t="str">
+      <c r="B126" s="4" t="str">
         <f>LEFT(C126,15)</f>
         <v>010403053991339</v>
       </c>
@@ -2836,196 +2859,196 @@
         <v>444</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="4">
         <v>4895158500290</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="4">
         <v>9316626102105</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="4">
         <v>801500110783</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="4">
         <v>4891663004926</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="4">
         <v>5603690001941</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="4" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="4">
         <v>9313109836052</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B158" s="2" t="str">
+      <c r="B158" s="4" t="str">
         <f>LEFT(C158,15)</f>
         <v>010489704258230</v>
       </c>
@@ -3033,80 +3056,80 @@
         <v>489</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="4">
         <v>4260016653621</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B171" s="2" t="str">
+      <c r="B171" s="4" t="str">
         <f>LEFT(C171,15)</f>
         <v>010426001665362</v>
       </c>
@@ -3114,11 +3137,11 @@
         <v>438</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B172" s="2" t="str">
+      <c r="B172" s="4" t="str">
         <f>LEFT(C172,15)</f>
         <v>011890602596883</v>
       </c>
@@ -3126,59 +3149,59 @@
         <v>419</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="4">
         <v>4052682034268</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B182" s="2" t="str">
+      <c r="B182" s="4" t="str">
         <f>LEFT(C182,15)</f>
         <v>010489703879004</v>
       </c>
@@ -3186,44 +3209,44 @@
         <v>437</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B189" s="2" t="str">
+      <c r="B189" s="4" t="str">
         <f>LEFT(C189,15)</f>
         <v>010426001665082</v>
       </c>
@@ -3231,42 +3254,42 @@
         <v>510</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="4" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B195" s="2" t="str">
+      <c r="B195" s="4" t="str">
         <f>LEFT(C195,15)</f>
         <v>010426001665147</v>
       </c>
@@ -3274,288 +3297,288 @@
         <v>441</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="4">
         <v>5702191006704</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="4">
         <v>4891034043271</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="4">
         <v>9313109808189</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="4" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="4" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="4">
         <v>8436035566624</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="4">
         <v>6091403218042</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="4" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B243" s="2" t="str">
+      <c r="B243" s="4" t="str">
         <f>LEFT(C243,15)</f>
         <v>010489704258371</v>
       </c>
@@ -3563,16 +3586,16 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B245" s="2" t="str">
+      <c r="B245" s="4" t="str">
         <f>LEFT(C245,15)</f>
         <v>010501412417429</v>
       </c>
@@ -3580,85 +3603,85 @@
         <v>502</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B259" s="2" t="str">
+      <c r="B259" s="4" t="str">
         <f>LEFT(C259,15)</f>
         <v>011080150011072</v>
       </c>
@@ -3666,122 +3689,122 @@
         <v>457</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="4" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B281" s="2" t="str">
+      <c r="B281" s="4" t="str">
         <f>LEFT(C281,15)</f>
         <v>010426001665367</v>
       </c>
@@ -3789,74 +3812,74 @@
         <v>454</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B294" s="2" t="str">
+      <c r="B294" s="4" t="str">
         <f>LEFT(C294,15)</f>
         <v>010426001665685</v>
       </c>
@@ -3864,44 +3887,44 @@
         <v>431</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295" s="4">
         <v>4260016656851</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B301" s="2" t="str">
+      <c r="B301" s="4" t="str">
         <f>LEFT(C301,15)</f>
         <v>011890112704053</v>
       </c>
@@ -3909,194 +3932,194 @@
         <v>425</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="4" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314" s="4">
         <v>6927924801107</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" s="4" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="4" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B331" s="2">
+      <c r="B331" s="4">
         <v>8901175029570</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B332" s="2" t="str">
+      <c r="B332" s="4" t="str">
         <f>LEFT(C332,15)</f>
         <v>011890117502957</v>
       </c>
@@ -4104,46 +4127,46 @@
         <v>427</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B340" s="2" t="str">
+      <c r="B340" s="4" t="str">
         <f>LEFT(C340,15)</f>
         <v>010403053991231</v>
       </c>
@@ -4151,24 +4174,24 @@
         <v>498</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B343" s="2" t="str">
+      <c r="B343" s="4" t="str">
         <f>LEFT(C343,15)</f>
         <v>010030338070948</v>
       </c>
@@ -4176,11 +4199,11 @@
         <v>458</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B344" s="2" t="str">
+      <c r="B344" s="4" t="str">
         <f>LEFT(C344,15)</f>
         <v>010030338070548</v>
       </c>
@@ -4188,86 +4211,86 @@
         <v>459</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B360" s="2" t="str">
+      <c r="B360" s="4" t="str">
         <f>LEFT(C360,15)</f>
         <v>011501272791359</v>
       </c>
@@ -4275,61 +4298,61 @@
         <v>423</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B371" s="2" t="str">
+      <c r="B371" s="4" t="str">
         <f>LEFT(C371,15)</f>
         <v>010489377600635</v>
       </c>
@@ -4337,87 +4360,87 @@
         <v>472</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="4" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B386" s="2" t="str">
+      <c r="B386" s="4" t="str">
         <f>LEFT(C386,15)</f>
         <v>010405268205372</v>
       </c>
@@ -4425,66 +4448,66 @@
         <v>497</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B398" s="2" t="str">
+      <c r="B398" s="4" t="str">
         <f>LEFT(C398,15)</f>
         <v>010489510360390</v>
       </c>
@@ -4492,29 +4515,29 @@
         <v>434</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B399" s="2">
+      <c r="B399" s="4">
         <v>4895103603908</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B402" s="2" t="str">
+      <c r="B402" s="4" t="str">
         <f>LEFT(C402,15)</f>
         <v>010415001676515</v>
       </c>
@@ -4522,76 +4545,76 @@
         <v>506</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B416" s="2" t="str">
+      <c r="B416" s="4" t="str">
         <f>LEFT(C416,15)</f>
         <v>010489501181560</v>
       </c>
@@ -4599,147 +4622,147 @@
         <v>429</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2">
       <c r="A417" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B417" s="4" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2">
       <c r="A418" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2">
       <c r="A419" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2">
       <c r="A420" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B420" s="2">
+      <c r="B420" s="4">
         <v>4823002246827</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2">
       <c r="A421" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2">
       <c r="A422" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2">
       <c r="A423" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2">
       <c r="A424" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2">
       <c r="A425" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2">
       <c r="A426" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2">
       <c r="A427" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2">
       <c r="A428" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2">
       <c r="A429" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B429" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2">
       <c r="A430" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B430" s="2">
+      <c r="B430" s="4">
         <v>8435373701452</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2">
       <c r="A431" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2">
       <c r="A432" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2">
       <c r="A433" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2">
       <c r="A434" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2">
       <c r="A435" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2">
       <c r="A436" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2">
       <c r="A437" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2">
       <c r="A438" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2">
       <c r="A439" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2">
       <c r="A440" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2">
       <c r="A441" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="4" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2">
       <c r="A442" s="1" t="s">
         <v>411</v>
       </c>
@@ -4751,5 +4774,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Topup Location Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2969420F-00A1-45E5-BEE6-0DB515502DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A74229-EFB9-4BD6-A1FC-35A215FCC5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="17380" windowHeight="13770" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="525">
   <si>
     <t>ADRE12</t>
   </si>
@@ -1690,6 +1690,15 @@
   </si>
   <si>
     <t>010501412417005617270228100150054</t>
+  </si>
+  <si>
+    <t>010502169116537</t>
+  </si>
+  <si>
+    <t>010489500340016</t>
+  </si>
+  <si>
+    <t>011890117502957</t>
   </si>
 </sst>
 </file>
@@ -1795,6 +1804,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1B953E8-69EA-4D46-8892-4ED17C0ABF28}" name="Table1" displayName="Table1" ref="A1:C442" totalsRowShown="0">
   <autoFilter ref="A1:C442" xr:uid="{F1B953E8-69EA-4D46-8892-4ED17C0ABF28}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C416">
+    <sortCondition ref="A1:A442"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{19194287-6099-45FF-8C46-BEBBA636F73A}" name="Item Code" dataDxfId="1" dataCellStyle="ReportDataStyle"/>
     <tableColumn id="2" xr3:uid="{9CEC65A6-79B1-428F-8CD3-FF8B7AA0540C}" name="Product_ID" dataDxfId="0"/>
@@ -2104,7 +2116,7 @@
   <dimension ref="A1:C442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2134,9 +2146,8 @@
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="4" t="str">
-        <f>LEFT(C3,15)</f>
-        <v>010502169116537</v>
+      <c r="B3" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>451</v>
@@ -2151,9 +2162,8 @@
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="4" t="str">
-        <f>LEFT(C5,15)</f>
-        <v>010489500340016</v>
+      <c r="B5" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>435</v>
@@ -4119,9 +4129,8 @@
       <c r="A332" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B332" s="4" t="str">
-        <f>LEFT(C332,15)</f>
-        <v>011890117502957</v>
+      <c r="B332" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>427</v>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C415B25-7AD5-4724-8628-D91D0B96319B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23D5F5-1F35-4CF8-BDA1-CE9E7B827FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="343">
   <si>
     <t>ADRE12</t>
   </si>
@@ -1060,6 +1060,10 @@
   </si>
   <si>
     <t>4895103600723</t>
+  </si>
+  <si>
+    <t>0300870402035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1453,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275B10A-B004-4409-84F2-80D485207F9B}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3234,8 +3238,8 @@
       <c r="A220" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B220" s="3">
-        <v>300870402035</v>
+      <c r="B220" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23D5F5-1F35-4CF8-BDA1-CE9E7B827FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258EC5D2-801E-4752-80B2-E12CBAA7B475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
@@ -741,9 +741,6 @@
     <t>010489377600135</t>
   </si>
   <si>
-    <t>064642022004</t>
-  </si>
-  <si>
     <t>4895103600327</t>
   </si>
   <si>
@@ -1063,6 +1060,10 @@
   </si>
   <si>
     <t>0300870402035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0064642022004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1457,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275B10A-B004-4409-84F2-80D485207F9B}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1822,7 @@
         <v>86</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,7 +1846,7 @@
         <v>35</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1853,7 +1854,7 @@
         <v>35</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +1886,7 @@
         <v>87</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1925,7 +1926,7 @@
         <v>104</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1933,7 +1934,7 @@
         <v>104</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1957,7 +1958,7 @@
         <v>105</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1989,7 +1990,7 @@
         <v>36</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,7 +2006,7 @@
         <v>209</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2021,7 +2022,7 @@
         <v>210</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2029,7 +2030,7 @@
         <v>37</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,7 +2038,7 @@
         <v>37</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2045,7 +2046,7 @@
         <v>107</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2085,7 +2086,7 @@
         <v>43</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2101,7 +2102,7 @@
         <v>5</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C79" s="3"/>
     </row>
@@ -2110,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2175,7 +2176,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2191,7 +2192,7 @@
         <v>109</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2231,7 +2232,7 @@
         <v>56</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,7 +2240,7 @@
         <v>110</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2255,7 +2256,7 @@
         <v>157</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2263,7 +2264,7 @@
         <v>73</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2279,7 +2280,7 @@
         <v>74</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2295,7 +2296,7 @@
         <v>159</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2303,7 +2304,7 @@
         <v>159</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2311,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2335,7 +2336,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2351,7 +2352,7 @@
         <v>75</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2359,7 +2360,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2383,7 +2384,7 @@
         <v>11</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2391,7 +2392,7 @@
         <v>46</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,7 +2416,7 @@
         <v>60</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C118" s="3"/>
     </row>
@@ -2424,7 +2425,7 @@
         <v>60</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2432,7 +2433,7 @@
         <v>162</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2440,7 +2441,7 @@
         <v>193</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2456,7 +2457,7 @@
         <v>76</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2464,7 +2465,7 @@
         <v>76</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2480,7 +2481,7 @@
         <v>113</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2513,7 +2514,7 @@
         <v>63</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2529,7 +2530,7 @@
         <v>128</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2537,7 +2538,7 @@
         <v>15</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2553,7 +2554,7 @@
         <v>170</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,7 +2570,7 @@
         <v>138</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2585,7 +2586,7 @@
         <v>48</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2609,7 +2610,7 @@
         <v>61</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2625,7 +2626,7 @@
         <v>114</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2641,7 +2642,7 @@
         <v>139</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2649,7 +2650,7 @@
         <v>49</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2657,7 +2658,7 @@
         <v>17</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,7 +2666,7 @@
         <v>18</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2689,7 +2690,7 @@
         <v>115</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2697,7 +2698,7 @@
         <v>115</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2705,7 +2706,7 @@
         <v>20</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2713,7 +2714,7 @@
         <v>116</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +2722,7 @@
         <v>50</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2753,7 +2754,7 @@
         <v>145</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2761,7 +2762,7 @@
         <v>21</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,7 +2770,7 @@
         <v>21</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C162" s="3"/>
     </row>
@@ -2794,7 +2795,7 @@
         <v>22</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2826,7 +2827,7 @@
         <v>195</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,7 +2859,7 @@
         <v>118</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2874,7 +2875,7 @@
         <v>130</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C175" s="3"/>
     </row>
@@ -2883,7 +2884,7 @@
         <v>130</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C176" s="3"/>
     </row>
@@ -2908,7 +2909,7 @@
         <v>77</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2948,7 +2949,7 @@
         <v>178</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2956,7 +2957,7 @@
         <v>205</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2964,7 +2965,7 @@
         <v>131</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2989,7 +2990,7 @@
         <v>93</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3013,7 +3014,7 @@
         <v>23</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -3021,7 +3022,7 @@
         <v>24</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3029,7 +3030,7 @@
         <v>79</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C194" s="3"/>
     </row>
@@ -3046,7 +3047,7 @@
         <v>140</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3054,7 +3055,7 @@
         <v>206</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3062,7 +3063,7 @@
         <v>148</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3087,7 +3088,7 @@
         <v>190</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3095,7 +3096,7 @@
         <v>181</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3111,7 +3112,7 @@
         <v>174</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3127,7 +3128,7 @@
         <v>174</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3143,7 +3144,7 @@
         <v>57</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3151,7 +3152,7 @@
         <v>149</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3159,7 +3160,7 @@
         <v>150</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3167,7 +3168,7 @@
         <v>25</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3175,7 +3176,7 @@
         <v>52</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3215,7 +3216,7 @@
         <v>39</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3239,7 +3240,7 @@
         <v>158</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3263,7 +3264,7 @@
         <v>27</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3271,7 +3272,7 @@
         <v>80</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3279,7 +3280,7 @@
         <v>80</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3287,7 +3288,7 @@
         <v>28</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3295,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3359,7 +3360,7 @@
         <v>81</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3367,7 +3368,7 @@
         <v>82</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3383,7 +3384,7 @@
         <v>121</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3391,7 +3392,7 @@
         <v>31</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3399,7 +3400,7 @@
         <v>31</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3407,7 +3408,7 @@
         <v>95</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3431,7 +3432,7 @@
         <v>32</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3439,7 +3440,7 @@
         <v>156</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3455,7 +3456,7 @@
         <v>151</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3463,7 +3464,7 @@
         <v>197</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C248" s="3"/>
     </row>
@@ -3480,7 +3481,7 @@
         <v>122</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C250" s="3"/>
     </row>
@@ -3505,7 +3506,7 @@
         <v>141</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3545,7 +3546,7 @@
         <v>55</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3553,7 +3554,7 @@
         <v>55</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3585,7 +3586,7 @@
         <v>124</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3618,7 +3619,7 @@
         <v>125</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3634,7 +3635,7 @@
         <v>84</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3658,7 +3659,7 @@
         <v>208</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258EC5D2-801E-4752-80B2-E12CBAA7B475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9352796F-50D9-4A64-8645-008C806B79F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="350">
   <si>
     <t>ADRE12</t>
   </si>
@@ -819,9 +819,6 @@
     <t>8435232322415</t>
   </si>
   <si>
-    <t>301320005455</t>
-  </si>
-  <si>
     <t>010426001665362</t>
   </si>
   <si>
@@ -907,9 +904,6 @@
   </si>
   <si>
     <t>4891663000065</t>
-  </si>
-  <si>
-    <t>801500110721</t>
   </si>
   <si>
     <t>011080150011072</t>
@@ -1064,6 +1058,42 @@
   </si>
   <si>
     <t>0064642022004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0801500110813</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0798232260049</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0801500110783</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0310019115016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0301320005455</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0801500110721</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0801500110806</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0801500110615</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1071,9 +1101,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1129,16 +1156,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,7 +1173,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ReportDataStyle" xfId="1" xr:uid="{5116F1F9-B8F1-4781-AE99-528B258E376D}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1157,6 +1195,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C272" totalsRowShown="0">
+  <autoFilter ref="A1:C272" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5AE9E73A-2FE1-484E-A390-EDC23A65F321}" name="Item Code" dataDxfId="2" dataCellStyle="ReportDataStyle"/>
+    <tableColumn id="2" xr3:uid="{4E2B1C1F-E74C-4D40-9BE8-EBBF62983B93}" name="Product_ID" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CE3FC665-AEDB-4D3B-AC13-E55DCCFE4138}" name="LEN" dataDxfId="0">
+      <calculatedColumnFormula>LEN(B2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1458,2208 +1510,3278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275B10A-B004-4409-84F2-80D485207F9B}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="58" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>212</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>213</v>
+      </c>
+      <c r="C2" s="3">
+        <f>LEN(B2)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>4895003400249</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C66" si="0">LEN(B3)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>214</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>4895003400164</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>215</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>216</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>9313109800152</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>9313109800053</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>217</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>219</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>220</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>221</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>222</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>4260095683069</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>5010724533819</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>4895103611064</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>5024071230130</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>4897042583259</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>8993430102821</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>5014124170056</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>4897104270189</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="3">
-        <v>801500110813</v>
+      <c r="B32" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>5026468000296</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>6091403218752</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>6091403218028</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>231</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>4892018047254</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>4891663004940</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>232</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>5014124170100</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>233</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>4893776001359</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>234</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>342</v>
+      <c r="B44" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>8906080480034</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>8906080480034</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>235</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>8854927005011</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>4895126673520</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>9350279000180</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>4894281008208</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>8936106321065</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>5000223446741</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>9556258002835</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>4895103607241</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>8902346024363</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>4891034025680</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="3">
-        <v>798232260049</v>
+      <c r="B64" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>242</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>8885018070069</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>243</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" ref="C67:C130" si="1">LEN(B67)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>8885018070076</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>244</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>245</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>246</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>247</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>57606407023</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>9556492002707</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>6432100052995</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>4895126695102</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>248</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>4030539913393</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>250</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>4895158500290</v>
+      </c>
+      <c r="C81" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>4895158500313</v>
+      </c>
+      <c r="C82" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>9316626102105</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>9555701010083</v>
+      </c>
+      <c r="C84" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>114987051142039</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>4893268338451</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="3">
-        <v>801500110783</v>
+      <c r="B87" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>251</v>
+      </c>
+      <c r="C88" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>4895103611224</v>
+      </c>
+      <c r="C89" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>252</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>3660053346042</v>
+      </c>
+      <c r="C91" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>4891663004926</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>5603690001941</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>4893629900037</v>
+      </c>
+      <c r="C94" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>253</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>4895103606114</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>9313109836052</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B102" s="3">
-        <v>310019115016</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>-2190861</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>7640114723971</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C108" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>4260016653621</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>4052682034268</v>
+      </c>
+      <c r="C112" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>4030539035903</v>
+      </c>
+      <c r="C113" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>264</v>
+      <c r="B114" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C114" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>265</v>
+      <c r="B115" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>5012617013613</v>
+      </c>
+      <c r="C116" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>4029125011537</v>
+      </c>
+      <c r="C117" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C118" s="3"/>
+      <c r="B118" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C118" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>267</v>
+      <c r="B119" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>268</v>
+      <c r="B120" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>269</v>
+      <c r="B121" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C121" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>5690528185034</v>
+      </c>
+      <c r="C122" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>270</v>
+      <c r="B123" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C123" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>271</v>
+      <c r="B124" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>5099602317017</v>
+      </c>
+      <c r="C125" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>272</v>
+      <c r="B126" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="2">
         <v>5702191006704</v>
+      </c>
+      <c r="C127" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>4891034043271</v>
+      </c>
+      <c r="C128" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="2">
         <v>9313109808189</v>
       </c>
-      <c r="C129" s="3"/>
+      <c r="C129" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>273</v>
+      <c r="B130" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C130" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="2">
         <v>4030539222525</v>
+      </c>
+      <c r="C131" s="3">
+        <f t="shared" ref="C131:C194" si="2">LEN(B131)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>274</v>
+      <c r="B132" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>275</v>
+      <c r="B133" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="2">
         <v>4895103601355</v>
+      </c>
+      <c r="C134" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>276</v>
+      <c r="B135" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C135" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="2">
         <v>4895103601256</v>
+      </c>
+      <c r="C136" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>277</v>
+      <c r="B137" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="2">
         <v>5060337260794</v>
+      </c>
+      <c r="C138" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>278</v>
+      <c r="B139" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>95505398</v>
+      </c>
+      <c r="C140" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="2">
         <v>8436035566624</v>
+      </c>
+      <c r="C141" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>279</v>
+      <c r="B142" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="2">
         <v>8002660001399</v>
+      </c>
+      <c r="C143" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C144" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="2">
         <v>3800714000597</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C146" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C147" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C148" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C149" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="2">
         <v>9316795006617</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="2">
         <v>6091403218042</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C152" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C153" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C154" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C155" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C156" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="2">
         <v>4893629900105</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="2">
         <v>5413760229225</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="2">
         <v>4899338800422</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>290</v>
+      <c r="B160" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C160" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>291</v>
+      <c r="B161" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C161" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C162" s="3"/>
+      <c r="B162" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C162" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="2">
         <v>4715718227330</v>
+      </c>
+      <c r="C163" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="2">
         <v>4715718227033</v>
+      </c>
+      <c r="C164" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>293</v>
+      <c r="B165" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C165" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="2">
         <v>5000456014069</v>
+      </c>
+      <c r="C166" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="2">
         <v>3582910082699</v>
+      </c>
+      <c r="C167" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="2">
         <v>4895158502898</v>
+      </c>
+      <c r="C168" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>294</v>
+      <c r="B169" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C169" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="2">
         <v>4893776006620</v>
+      </c>
+      <c r="C170" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="2">
         <v>4987084302663</v>
+      </c>
+      <c r="C171" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="2">
         <v>4260016650705</v>
+      </c>
+      <c r="C172" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>295</v>
+      <c r="B173" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C173" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="2">
         <v>4897002622257</v>
+      </c>
+      <c r="C174" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C175" s="3"/>
+      <c r="B175" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C175" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C176" s="3"/>
+      <c r="B176" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C176" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="2">
         <v>5702191023268</v>
+      </c>
+      <c r="C177" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="2">
         <v>3700567700012</v>
+      </c>
+      <c r="C178" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>298</v>
+      <c r="B179" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C179" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="2">
         <v>100304093024012</v>
+      </c>
+      <c r="C180" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="2">
         <v>7612098000362</v>
+      </c>
+      <c r="C181" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="2">
         <v>5997001380932</v>
+      </c>
+      <c r="C182" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="2">
         <v>4897056490260</v>
+      </c>
+      <c r="C183" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>299</v>
+      <c r="B184" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C184" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>300</v>
+      <c r="B185" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C185" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>301</v>
+      <c r="B186" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C186" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="2">
         <v>4260016656851</v>
       </c>
-      <c r="C187" s="3"/>
+      <c r="C187" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="2">
         <v>4052682064906</v>
+      </c>
+      <c r="C188" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>302</v>
+      <c r="B189" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C189" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="2">
         <v>4897042583013</v>
+      </c>
+      <c r="C190" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="2">
         <v>4897010454758</v>
+      </c>
+      <c r="C191" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>303</v>
+      <c r="B192" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C192" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>304</v>
+      <c r="B193" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C193" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C194" s="3"/>
+      <c r="B194" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C194" s="3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="2">
         <v>9340404001229</v>
+      </c>
+      <c r="C195" s="3">
+        <f t="shared" ref="C195:C258" si="3">LEN(B195)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>306</v>
+      <c r="B196" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C196" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>307</v>
+      <c r="B197" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C197" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>308</v>
+      <c r="B198" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C198" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="2">
         <v>5014124170261</v>
+      </c>
+      <c r="C199" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="2">
         <v>6927924801107</v>
       </c>
-      <c r="C200" s="3"/>
+      <c r="C200" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>309</v>
+      <c r="B201" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C201" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>310</v>
+      <c r="B202" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C202" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="2">
         <v>9313109827159</v>
+      </c>
+      <c r="C203" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>311</v>
+      <c r="B204" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C204" s="3">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="2" t="s">
         <v>221</v>
+      </c>
+      <c r="C205" s="3">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>312</v>
+      <c r="B206" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C206" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B207" s="3">
-        <v>801500110806</v>
+      <c r="B207" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C207" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C208" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C209" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B210" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C210" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B211" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C211" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B212" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C212" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="2">
         <v>4893629900075</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="2">
         <v>4893629900082</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="2">
         <v>4893629900068</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="2">
         <v>8901175029570</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B217" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C217" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="2">
         <v>3582910052647</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="2">
         <v>3582910052654</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B220" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C220" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="2">
         <v>3665585003012</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="2">
         <v>75094386</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C223" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B224" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C224" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C225" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C226" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C227" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="2">
         <v>5291043001160</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="2">
         <v>5291043000354</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="2">
         <v>5291043000385</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="2">
         <v>4897046660185</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="2">
         <v>4897000501202</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="2">
         <v>9331134000118</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="2">
         <v>4893629900198</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C235" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B236" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C236" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="2">
         <v>3664798045482</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B238" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C238" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C239" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>327</v>
+      <c r="B240" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C240" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>328</v>
+      <c r="B241" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C241" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="2">
         <v>8054083002279</v>
+      </c>
+      <c r="C242" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="2">
         <v>4030539071475</v>
+      </c>
+      <c r="C243" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B244" s="3" t="s">
-        <v>329</v>
+      <c r="B244" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C244" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B245" s="3" t="s">
-        <v>330</v>
+      <c r="B245" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C245" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="2">
         <v>9556492000130</v>
+      </c>
+      <c r="C246" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B247" s="3" t="s">
-        <v>331</v>
+      <c r="B247" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C247" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B248" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C248" s="3"/>
+      <c r="B248" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C248" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="2">
         <v>4895103603908</v>
+      </c>
+      <c r="C249" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B250" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C250" s="3"/>
+      <c r="B250" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C250" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B251" s="3">
-        <v>801500110615</v>
+      <c r="B251" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C251" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="2">
         <v>110801500110612</v>
+      </c>
+      <c r="C252" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B253" s="3" t="s">
-        <v>334</v>
+      <c r="B253" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C253" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="2">
         <v>4893645241459</v>
+      </c>
+      <c r="C254" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" s="2">
         <v>6923878313697</v>
+      </c>
+      <c r="C255" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="2">
         <v>4893629900839</v>
+      </c>
+      <c r="C256" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="2">
         <v>4893629900822</v>
+      </c>
+      <c r="C257" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B258" s="3" t="s">
-        <v>335</v>
+      <c r="B258" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C258" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B259" s="3" t="s">
-        <v>336</v>
+      <c r="B259" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C259" s="3">
+        <f t="shared" ref="C259:C272" si="4">LEN(B259)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="2">
         <v>4823002246827</v>
+      </c>
+      <c r="C260" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="2">
         <v>5713844000000</v>
+      </c>
+      <c r="C261" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="2">
         <v>4895103601003</v>
+      </c>
+      <c r="C262" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B263" s="3" t="s">
-        <v>337</v>
+      <c r="B263" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C263" s="3">
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="2">
         <v>4711914315215</v>
       </c>
-      <c r="C264" s="3"/>
+      <c r="C264" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="2">
         <v>3582910055112</v>
+      </c>
+      <c r="C265" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="2">
         <v>3582910005810</v>
+      </c>
+      <c r="C266" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B267" s="3" t="s">
-        <v>338</v>
+      <c r="B267" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C267" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="2">
         <v>8435373701452</v>
+      </c>
+      <c r="C268" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B269" s="3" t="s">
-        <v>339</v>
+      <c r="B269" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C269" s="3">
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="2">
         <v>4891034025703</v>
+      </c>
+      <c r="C270" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="2">
         <v>4891034025710</v>
+      </c>
+      <c r="C271" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B272" s="3" t="s">
-        <v>340</v>
+      <c r="B272" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C272" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,7 +4825,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
-      <c r="C286" s="3"/>
+      <c r="C286" s="4"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
@@ -3765,7 +4887,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
-      <c r="C306" s="3"/>
+      <c r="C306" s="4"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
@@ -3862,7 +4984,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
-      <c r="C338" s="3"/>
+      <c r="C338" s="4"/>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
@@ -3887,7 +5009,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
-      <c r="C346" s="3"/>
+      <c r="C346" s="4"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
@@ -3897,11 +5019,11 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
-      <c r="C349" s="3"/>
+      <c r="C349" s="4"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
-      <c r="C350" s="3"/>
+      <c r="C350" s="4"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
@@ -3950,7 +5072,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
-      <c r="C366" s="3"/>
+      <c r="C366" s="4"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
@@ -3984,7 +5106,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
-      <c r="C377" s="3"/>
+      <c r="C377" s="4"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
@@ -4030,7 +5152,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
-      <c r="C392" s="3"/>
+      <c r="C392" s="4"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
@@ -4067,7 +5189,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
-      <c r="C404" s="3"/>
+      <c r="C404" s="4"/>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
@@ -4080,7 +5202,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
-      <c r="C408" s="3"/>
+      <c r="C408" s="4"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
@@ -4123,7 +5245,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
-      <c r="C422" s="3"/>
+      <c r="C422" s="4"/>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
@@ -4210,5 +5332,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9352796F-50D9-4A64-8645-008C806B79F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB793C-DC8D-497D-96F4-C85354211BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="352">
   <si>
     <t>ADRE12</t>
   </si>
@@ -1094,6 +1094,14 @@
   </si>
   <si>
     <t>0801500110615</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAS12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010880646601621</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1166,6 +1174,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,8 +1209,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C272" totalsRowShown="0">
-  <autoFilter ref="A1:C272" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C273" totalsRowShown="0">
+  <autoFilter ref="A1:C273" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5AE9E73A-2FE1-484E-A390-EDC23A65F321}" name="Item Code" dataDxfId="2" dataCellStyle="ReportDataStyle"/>
     <tableColumn id="2" xr3:uid="{4E2B1C1F-E74C-4D40-9BE8-EBBF62983B93}" name="Product_ID" dataDxfId="1"/>
@@ -1510,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275B10A-B004-4409-84F2-80D485207F9B}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B273" sqref="B273"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="G250" sqref="G250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4785,7 +4796,16 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
+      <c r="A273" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C273" s="3">
+        <f>LEN(B273)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Topup Location Checker\28-1-2025 Version for Scanning\6-2-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB793C-DC8D-497D-96F4-C85354211BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33768DCA-9050-4CA1-BC00-BBB48AD853B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="353">
   <si>
     <t>ADRE12</t>
   </si>
@@ -691,9 +691,6 @@
   </si>
   <si>
     <t>4711916011337</t>
-  </si>
-  <si>
-    <t>k1663</t>
   </si>
   <si>
     <t>4891768000052</t>
@@ -1102,6 +1099,14 @@
   </si>
   <si>
     <t>010880646601621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>166300000000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>219086100000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1109,7 +1114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,16 +1172,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,9 +1222,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1263,7 +1262,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1369,7 +1368,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1511,7 +1510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1521,3828 +1520,3828 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275B10A-B004-4409-84F2-80D485207F9B}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="G250" sqref="G250"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" customWidth="1"/>
     <col min="2" max="2" width="58" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="3" max="3" width="9.09765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>211</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <f>LEN(B2)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="2">
         <v>4895003400249</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <f t="shared" ref="C3:C66" si="0">LEN(B3)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>4895003400164</v>
       </c>
-      <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="2">
         <v>9313109800152</v>
       </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2">
         <v>9313109800053</v>
       </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="3">
+        <v>220</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B20" s="2">
         <v>4260095683069</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B21" s="2">
         <v>5010724533819</v>
       </c>
-      <c r="C21" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2">
         <v>4895103611064</v>
       </c>
-      <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B24" s="2">
         <v>5024071230130</v>
       </c>
-      <c r="C24" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B26" s="2">
         <v>4897042583259</v>
       </c>
-      <c r="C26" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B27" s="2">
         <v>8993430102821</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="2">
         <v>5014124170056</v>
       </c>
-      <c r="C29" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B30" s="2">
         <v>4897104270189</v>
       </c>
-      <c r="C30" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B33" s="2">
         <v>5026468000296</v>
       </c>
-      <c r="C33" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B34" s="2">
         <v>6091403218752</v>
       </c>
-      <c r="C34" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B35" s="2">
         <v>6091403218028</v>
       </c>
-      <c r="C35" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B37" s="2">
         <v>4892018047254</v>
       </c>
-      <c r="C37" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B38" s="2">
         <v>4891663004940</v>
       </c>
-      <c r="C38" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B40" s="2">
         <v>5014124170100</v>
       </c>
-      <c r="C40" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="2">
         <v>4893776001359</v>
       </c>
-      <c r="C42" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B45" s="2">
         <v>8906080480034</v>
       </c>
-      <c r="C45" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B46" s="2">
         <v>8906080480034</v>
       </c>
-      <c r="C46" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C49" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B50" s="2">
         <v>8854927005011</v>
       </c>
-      <c r="C50" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B51" s="2">
         <v>4895126673520</v>
       </c>
-      <c r="C51" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="2">
         <v>9350279000180</v>
       </c>
-      <c r="C53" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B54" s="2">
         <v>4894281008208</v>
       </c>
-      <c r="C54" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B55" s="2">
         <v>8936106321065</v>
       </c>
-      <c r="C55" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B56" s="2">
         <v>5000223446741</v>
       </c>
-      <c r="C56" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C58" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B59" s="2">
         <v>9556258002835</v>
       </c>
-      <c r="C59" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B60" s="2">
         <v>4895103607241</v>
       </c>
-      <c r="C60" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C61" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B62" s="2">
         <v>8902346024363</v>
       </c>
-      <c r="C62" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B63" s="2">
         <v>4891034025680</v>
       </c>
-      <c r="C63" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C64" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C65" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B66" s="2">
         <v>8885018070069</v>
       </c>
-      <c r="C66" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C67" s="3">
+        <v>242</v>
+      </c>
+      <c r="C67">
         <f t="shared" ref="C67:C130" si="1">LEN(B67)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B68" s="2">
         <v>8885018070076</v>
       </c>
-      <c r="C68" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C69" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C71" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C72" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B73" s="2">
         <v>57606407023</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B74" s="2">
         <v>9556492002707</v>
       </c>
-      <c r="C74" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B75" s="2">
         <v>6432100052995</v>
       </c>
-      <c r="C75" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B76" s="2">
         <v>4895126695102</v>
       </c>
-      <c r="C76" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="2">
         <v>4030539913393</v>
       </c>
-      <c r="C78" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C79" s="3">
+        <v>248</v>
+      </c>
+      <c r="C79">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C80" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B81" s="2">
         <v>4895158500290</v>
       </c>
-      <c r="C81" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B82" s="2">
         <v>4895158500313</v>
       </c>
-      <c r="C82" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B83" s="2">
         <v>9316626102105</v>
       </c>
-      <c r="C83" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B84" s="2">
         <v>9555701010083</v>
       </c>
-      <c r="C84" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B85" s="2">
         <v>114987051142039</v>
       </c>
-      <c r="C85" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B86" s="2">
         <v>4893268338451</v>
       </c>
-      <c r="C86" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C87" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C88" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="2">
         <v>4895103611224</v>
       </c>
-      <c r="C89" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C90" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B91" s="2">
         <v>3660053346042</v>
       </c>
-      <c r="C91" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B92" s="2">
         <v>4891663004926</v>
       </c>
-      <c r="C92" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="2">
         <v>5603690001941</v>
       </c>
-      <c r="C93" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B94" s="2">
         <v>4893629900037</v>
       </c>
-      <c r="C94" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C95" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C96" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B97" s="2">
         <v>4895103606114</v>
       </c>
-      <c r="C97" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C98" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C99" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B100" s="2">
         <v>9313109836052</v>
       </c>
-      <c r="C100" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C101" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C102" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C103" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C104" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C105" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="2">
-        <v>-2190861</v>
-      </c>
-      <c r="C106" s="3">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B107" s="2">
         <v>7640114723971</v>
       </c>
-      <c r="C107" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C108" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B109" s="2">
         <v>4260016653621</v>
       </c>
-      <c r="C109" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C110" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C111" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B112" s="2">
         <v>4052682034268</v>
       </c>
-      <c r="C112" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B113" s="2">
         <v>4030539035903</v>
       </c>
-      <c r="C113" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C114" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C115" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="2">
         <v>5012617013613</v>
       </c>
-      <c r="C116" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B117" s="2">
         <v>4029125011537</v>
       </c>
-      <c r="C117" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C118" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C119" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C120" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C121" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B122" s="2">
         <v>5690528185034</v>
       </c>
-      <c r="C122" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C123" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C124" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B125" s="2">
         <v>5099602317017</v>
       </c>
-      <c r="C125" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C126" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B127" s="2">
         <v>5702191006704</v>
       </c>
-      <c r="C127" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B128" s="2">
         <v>4891034043271</v>
       </c>
-      <c r="C128" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B129" s="2">
         <v>9313109808189</v>
       </c>
-      <c r="C129" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C130" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B131" s="2">
         <v>4030539222525</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131">
         <f t="shared" ref="C131:C194" si="2">LEN(B131)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C132" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C133" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B134" s="2">
         <v>4895103601355</v>
       </c>
-      <c r="C134" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C135" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B136" s="2">
         <v>4895103601256</v>
       </c>
-      <c r="C136" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C137" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B138" s="2">
         <v>5060337260794</v>
       </c>
-      <c r="C138" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C139" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B140" s="2">
         <v>95505398</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B141" s="2">
         <v>8436035566624</v>
       </c>
-      <c r="C141" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C142" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B143" s="2">
         <v>8002660001399</v>
       </c>
-      <c r="C143" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C144" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B145" s="2">
         <v>3800714000597</v>
       </c>
-      <c r="C145" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C146" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C147" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C148" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C149" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B150" s="2">
         <v>9316795006617</v>
       </c>
-      <c r="C150" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B151" s="2">
         <v>6091403218042</v>
       </c>
-      <c r="C151" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C152" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C153" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C154" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C155" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C156" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B157" s="2">
         <v>4893629900105</v>
       </c>
-      <c r="C157" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B158" s="2">
         <v>5413760229225</v>
       </c>
-      <c r="C158" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B159" s="2">
         <v>4899338800422</v>
       </c>
-      <c r="C159" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C160" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C161" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C162" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B163" s="2">
         <v>4715718227330</v>
       </c>
-      <c r="C163" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B164" s="2">
         <v>4715718227033</v>
       </c>
-      <c r="C164" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C165" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B166" s="2">
         <v>5000456014069</v>
       </c>
-      <c r="C166" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B167" s="2">
         <v>3582910082699</v>
       </c>
-      <c r="C167" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B168" s="2">
         <v>4895158502898</v>
       </c>
-      <c r="C168" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C169" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B170" s="2">
         <v>4893776006620</v>
       </c>
-      <c r="C170" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B171" s="2">
         <v>4987084302663</v>
       </c>
-      <c r="C171" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B172" s="2">
         <v>4260016650705</v>
       </c>
-      <c r="C172" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C173" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B174" s="2">
         <v>4897002622257</v>
       </c>
-      <c r="C174" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C175" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C176" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B177" s="2">
         <v>5702191023268</v>
       </c>
-      <c r="C177" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B178" s="2">
         <v>3700567700012</v>
       </c>
-      <c r="C178" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C179" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B180" s="2">
         <v>100304093024012</v>
       </c>
-      <c r="C180" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B181" s="2">
         <v>7612098000362</v>
       </c>
-      <c r="C181" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B182" s="2">
         <v>5997001380932</v>
       </c>
-      <c r="C182" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B183" s="2">
         <v>4897056490260</v>
       </c>
-      <c r="C183" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C184" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C185" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C186" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B187" s="2">
         <v>4260016656851</v>
       </c>
-      <c r="C187" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B188" s="2">
         <v>4052682064906</v>
       </c>
-      <c r="C188" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C189" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B190" s="2">
         <v>4897042583013</v>
       </c>
-      <c r="C190" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B191" s="2">
         <v>4897010454758</v>
       </c>
-      <c r="C191" s="3">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C192" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C193" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C194" s="3">
+        <v>302</v>
+      </c>
+      <c r="C194">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B195" s="2">
         <v>9340404001229</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195">
         <f t="shared" ref="C195:C258" si="3">LEN(B195)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C196" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C197" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C198" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B199" s="2">
         <v>5014124170261</v>
       </c>
-      <c r="C199" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B200" s="2">
         <v>6927924801107</v>
       </c>
-      <c r="C200" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C201" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C202" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B203" s="2">
         <v>9313109827159</v>
       </c>
-      <c r="C203" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C204" s="3">
+        <v>308</v>
+      </c>
+      <c r="C204">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C205" s="3">
+        <v>220</v>
+      </c>
+      <c r="C205">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C206" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C207" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C208" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C209" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C210" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C211" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C212" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B213" s="2">
         <v>4893629900075</v>
       </c>
-      <c r="C213" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B214" s="2">
         <v>4893629900082</v>
       </c>
-      <c r="C214" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B215" s="2">
         <v>4893629900068</v>
       </c>
-      <c r="C215" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B216" s="2">
         <v>8901175029570</v>
       </c>
-      <c r="C216" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C217" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B218" s="2">
         <v>3582910052647</v>
       </c>
-      <c r="C218" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B219" s="2">
         <v>3582910052654</v>
       </c>
-      <c r="C219" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C220" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B221" s="2">
         <v>3665585003012</v>
       </c>
-      <c r="C221" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B222" s="2">
         <v>75094386</v>
       </c>
-      <c r="C222" s="3">
+      <c r="C222">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C223" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C224" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C225" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C226" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C227" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B228" s="2">
         <v>5291043001160</v>
       </c>
-      <c r="C228" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B229" s="2">
         <v>5291043000354</v>
       </c>
-      <c r="C229" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B230" s="2">
         <v>5291043000385</v>
       </c>
-      <c r="C230" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B231" s="2">
         <v>4897046660185</v>
       </c>
-      <c r="C231" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B232" s="2">
         <v>4897000501202</v>
       </c>
-      <c r="C232" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B233" s="2">
         <v>9331134000118</v>
       </c>
-      <c r="C233" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B234" s="2">
         <v>4893629900198</v>
       </c>
-      <c r="C234" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C235" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C236" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B237" s="2">
         <v>3664798045482</v>
       </c>
-      <c r="C237" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C238" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C239" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C240" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C241" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B242" s="2">
         <v>8054083002279</v>
       </c>
-      <c r="C242" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B243" s="2">
         <v>4030539071475</v>
       </c>
-      <c r="C243" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C244" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C245" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B246" s="2">
         <v>9556492000130</v>
       </c>
-      <c r="C246" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C247" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C248" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B249" s="2">
         <v>4895103603908</v>
       </c>
-      <c r="C249" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C250" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C251" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B252" s="2">
         <v>110801500110612</v>
       </c>
-      <c r="C252" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C253" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B254" s="2">
         <v>4893645241459</v>
       </c>
-      <c r="C254" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B255" s="2">
         <v>6923878313697</v>
       </c>
-      <c r="C255" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B256" s="2">
         <v>4893629900839</v>
       </c>
-      <c r="C256" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B257" s="2">
         <v>4893629900822</v>
       </c>
-      <c r="C257" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C258" s="3">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C259" s="3">
+        <v>333</v>
+      </c>
+      <c r="C259">
         <f t="shared" ref="C259:C272" si="4">LEN(B259)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B260" s="2">
         <v>4823002246827</v>
       </c>
-      <c r="C260" s="3">
+      <c r="C260">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B261" s="2">
         <v>5713844000000</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C261">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B262" s="2">
         <v>4895103601003</v>
       </c>
-      <c r="C262" s="3">
+      <c r="C262">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C263" s="3">
+        <v>334</v>
+      </c>
+      <c r="C263">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B264" s="2">
         <v>4711914315215</v>
       </c>
-      <c r="C264" s="3">
+      <c r="C264">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B265" s="2">
         <v>3582910055112</v>
       </c>
-      <c r="C265" s="3">
+      <c r="C265">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B266" s="2">
         <v>3582910005810</v>
       </c>
-      <c r="C266" s="3">
+      <c r="C266">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C267" s="3">
+        <v>335</v>
+      </c>
+      <c r="C267">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B268" s="2">
         <v>8435373701452</v>
       </c>
-      <c r="C268" s="3">
+      <c r="C268">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C269" s="3">
+        <v>336</v>
+      </c>
+      <c r="C269">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B270" s="2">
         <v>4891034025703</v>
       </c>
-      <c r="C270" s="3">
+      <c r="C270">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B271" s="2">
         <v>4891034025710</v>
       </c>
-      <c r="C271" s="3">
+      <c r="C271">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C272" s="3">
+        <v>337</v>
+      </c>
+      <c r="C272">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="6" t="s">
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C273" s="3">
+      <c r="C273">
         <f>LEN(B273)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" s="1"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" s="1"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" s="1"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" s="1"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" s="1"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" s="1"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" s="1"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" s="1"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" s="1"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284" s="1"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" s="1"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286" s="1"/>
-      <c r="C286" s="4"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" s="1"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" s="1"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" s="1"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290" s="1"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" s="1"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" s="1"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293" s="1"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294" s="1"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295" s="1"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296" s="1"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297" s="1"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298" s="1"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" s="1"/>
-      <c r="C299" s="5"/>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="4"/>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" s="1"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" s="1"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" s="1"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" s="1"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3">
       <c r="A304" s="1"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305" s="1"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3">
       <c r="A306" s="1"/>
-      <c r="C306" s="4"/>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" s="1"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3">
       <c r="A308" s="1"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3">
       <c r="A309" s="1"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3">
       <c r="A310" s="1"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3">
       <c r="A311" s="1"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3">
       <c r="A312" s="1"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3">
       <c r="A313" s="1"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3">
       <c r="A314" s="1"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3">
       <c r="A315" s="1"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316" s="1"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317" s="1"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318" s="1"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319" s="1"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" s="1"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1">
       <c r="A321" s="1"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1">
       <c r="A322" s="1"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1">
       <c r="A323" s="1"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1">
       <c r="A324" s="1"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1">
       <c r="A325" s="1"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1">
       <c r="A326" s="1"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1">
       <c r="A327" s="1"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1">
       <c r="A328" s="1"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1">
       <c r="A329" s="1"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1">
       <c r="A330" s="1"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1">
       <c r="A331" s="1"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1">
       <c r="A332" s="1"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1">
       <c r="A333" s="1"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1">
       <c r="A334" s="1"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1">
       <c r="A335" s="1"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1">
       <c r="A336" s="1"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" s="1"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" s="1"/>
-      <c r="C338" s="4"/>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" s="1"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" s="1"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" s="1"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" s="1"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" s="1"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" s="1"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" s="1"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" s="1"/>
-      <c r="C346" s="4"/>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" s="1"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" s="1"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" s="1"/>
-      <c r="C349" s="4"/>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" s="1"/>
-      <c r="C350" s="4"/>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351" s="1"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" s="1"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" s="1"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" s="1"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" s="1"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356" s="1"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357" s="1"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358" s="1"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" s="1"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" s="1"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" s="1"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" s="1"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" s="1"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" s="1"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365" s="1"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" s="1"/>
-      <c r="C366" s="4"/>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="1:3">
       <c r="A367" s="1"/>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368" s="1"/>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369" s="1"/>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" s="1"/>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371" s="1"/>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372" s="1"/>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3">
       <c r="A373" s="1"/>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3">
       <c r="A374" s="1"/>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3">
       <c r="A375" s="1"/>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3">
       <c r="A376" s="1"/>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3">
       <c r="A377" s="1"/>
-      <c r="C377" s="4"/>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="1:3">
       <c r="A378" s="1"/>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3">
       <c r="A379" s="1"/>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3">
       <c r="A380" s="1"/>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3">
       <c r="A381" s="1"/>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3">
       <c r="A382" s="1"/>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3">
       <c r="A383" s="1"/>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3">
       <c r="A384" s="1"/>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3">
       <c r="A385" s="1"/>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3">
       <c r="A386" s="1"/>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3">
       <c r="A387" s="1"/>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3">
       <c r="A388" s="1"/>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3">
       <c r="A389" s="1"/>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3">
       <c r="A390" s="1"/>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3">
       <c r="A391" s="1"/>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3">
       <c r="A392" s="1"/>
-      <c r="C392" s="4"/>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="1:3">
       <c r="A393" s="1"/>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3">
       <c r="A394" s="1"/>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3">
       <c r="A395" s="1"/>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3">
       <c r="A396" s="1"/>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3">
       <c r="A397" s="1"/>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3">
       <c r="A398" s="1"/>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3">
       <c r="A399" s="1"/>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3">
       <c r="A400" s="1"/>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3">
       <c r="A401" s="1"/>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3">
       <c r="A402" s="1"/>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3">
       <c r="A403" s="1"/>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3">
       <c r="A404" s="1"/>
-      <c r="C404" s="4"/>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="1:3">
       <c r="A405" s="1"/>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3">
       <c r="A406" s="1"/>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3">
       <c r="A407" s="1"/>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3">
       <c r="A408" s="1"/>
-      <c r="C408" s="4"/>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="1:3">
       <c r="A409" s="1"/>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3">
       <c r="A410" s="1"/>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3">
       <c r="A411" s="1"/>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3">
       <c r="A412" s="1"/>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3">
       <c r="A413" s="1"/>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3">
       <c r="A414" s="1"/>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3">
       <c r="A415" s="1"/>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3">
       <c r="A416" s="1"/>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3">
       <c r="A417" s="1"/>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3">
       <c r="A418" s="1"/>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3">
       <c r="A419" s="1"/>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3">
       <c r="A420" s="1"/>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3">
       <c r="A421" s="1"/>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3">
       <c r="A422" s="1"/>
-      <c r="C422" s="4"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="1:3">
       <c r="A423" s="1"/>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3">
       <c r="A424" s="1"/>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3">
       <c r="A425" s="1"/>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3">
       <c r="A426" s="1"/>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3">
       <c r="A427" s="1"/>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3">
       <c r="A428" s="1"/>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3">
       <c r="A429" s="1"/>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3">
       <c r="A430" s="1"/>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3">
       <c r="A431" s="1"/>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3">
       <c r="A432" s="1"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1">
       <c r="A433" s="1"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1">
       <c r="A434" s="1"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1">
       <c r="A435" s="1"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1">
       <c r="A436" s="1"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1">
       <c r="A437" s="1"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1">
       <c r="A438" s="1"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1">
       <c r="A439" s="1"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1">
       <c r="A440" s="1"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1">
       <c r="A441" s="1"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1">
       <c r="A442" s="1"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1">
       <c r="A443" s="1"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1">
       <c r="A444" s="1"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1">
       <c r="A445" s="1"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1">
       <c r="A446" s="1"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1">
       <c r="A447" s="1"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1">
       <c r="A448" s="1"/>
     </row>
   </sheetData>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Topup Location Checker\28-1-2025 Version for Scanning\6-2-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33768DCA-9050-4CA1-BC00-BBB48AD853B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65216150-335B-489D-8652-868804A379AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="356">
   <si>
     <t>ADRE12</t>
   </si>
@@ -201,9 +201,6 @@
     <t>POVI01</t>
   </si>
   <si>
-    <t>TRAM01</t>
-  </si>
-  <si>
     <t>EMLA01</t>
   </si>
   <si>
@@ -960,9 +957,6 @@
     <t>9313109827159</t>
   </si>
   <si>
-    <t>k1569</t>
-  </si>
-  <si>
     <t>5027519001804</t>
   </si>
   <si>
@@ -1030,9 +1024,6 @@
   </si>
   <si>
     <t>010339113587001</t>
-  </si>
-  <si>
-    <t>010489501181560</t>
   </si>
   <si>
     <t>4260016650811</t>
@@ -1102,11 +1093,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>FERR31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010489506611886</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRAM02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010426001665081</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>219086100000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>166300000000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>219086100000000</t>
+    <t>156900000000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1114,7 +1129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,7 +1177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1172,10 +1187,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,8 +1229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C273" totalsRowShown="0">
-  <autoFilter ref="A1:C273" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C275" totalsRowShown="0">
+  <autoFilter ref="A1:C275" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5AE9E73A-2FE1-484E-A390-EDC23A65F321}" name="Item Code" dataDxfId="2" dataCellStyle="ReportDataStyle"/>
     <tableColumn id="2" xr3:uid="{4E2B1C1F-E74C-4D40-9BE8-EBBF62983B93}" name="Product_ID" dataDxfId="1"/>
@@ -1222,9 +1243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1262,7 +1283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1368,7 +1389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1510,7 +1531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1521,3827 +1542,3845 @@
   <dimension ref="A1:C448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+      <selection activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="58" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.09765625"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="3">
+        <f>LEN(B2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2">
-        <f>LEN(B2)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="B3" s="2">
         <v>4895003400249</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:C66" si="0">LEN(B3)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>213</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>4895003400164</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2">
         <v>9313109800152</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2">
         <v>9313109800053</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2">
         <v>4260095683069</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2">
         <v>5010724533819</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2">
         <v>4895103611064</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>225</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="2">
         <v>5024071230130</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>226</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2">
         <v>4897042583259</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2">
         <v>8993430102821</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>227</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2">
         <v>5014124170056</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="2">
         <v>4897104270189</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>228</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>338</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="2">
         <v>5026468000296</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" s="2">
         <v>6091403218752</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" s="2">
         <v>6091403218028</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>229</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2">
         <v>4892018047254</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" s="2">
         <v>4891663004940</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>230</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" s="2">
         <v>5014124170100</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>231</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" s="2">
         <v>4893776001359</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>232</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>336</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" s="2">
         <v>8906080480034</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" s="2">
         <v>8906080480034</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>233</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>234</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>235</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" s="2">
         <v>8854927005011</v>
       </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2">
         <v>4895126673520</v>
       </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>236</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="2">
         <v>9350279000180</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B54" s="2">
         <v>4894281008208</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2">
         <v>8936106321065</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="2">
         <v>5000223446741</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2">
         <v>9556258002835</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="C59" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2">
         <v>4895103607241</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="C60" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>239</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B62" s="2">
         <v>8902346024363</v>
       </c>
-      <c r="C62">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="C62" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2">
         <v>4891034025680</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="C63" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>339</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B66" s="2">
         <v>8885018070069</v>
       </c>
-      <c r="C66">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="C66" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" ref="C67:C130" si="1">LEN(B67)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ref="C67:C130" si="1">LEN(B67)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="B68" s="2">
         <v>8885018070076</v>
       </c>
-      <c r="C68">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="C68" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>242</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>243</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C71">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="C72" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2">
         <v>57606407023</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B74" s="2">
         <v>9556492002707</v>
       </c>
-      <c r="C74">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="C74" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="2">
         <v>6432100052995</v>
       </c>
-      <c r="C75">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="C75" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B76" s="2">
         <v>4895126695102</v>
       </c>
-      <c r="C76">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="C76" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>246</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="2">
         <v>4030539913393</v>
       </c>
-      <c r="C78">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="C78" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C79">
+        <v>247</v>
+      </c>
+      <c r="C79" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>248</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2">
         <v>4895158500290</v>
       </c>
-      <c r="C81">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="C81" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2">
         <v>4895158500313</v>
       </c>
-      <c r="C82">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="C82" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B83" s="2">
         <v>9316626102105</v>
       </c>
-      <c r="C83">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="C83" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2">
         <v>9555701010083</v>
       </c>
-      <c r="C84">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="C84" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B85" s="2">
         <v>114987051142039</v>
       </c>
-      <c r="C85">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="C85" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B86" s="2">
         <v>4893268338451</v>
       </c>
-      <c r="C86">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="C86" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="B88" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>249</v>
+      </c>
+      <c r="C88" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>4895103611224</v>
       </c>
-      <c r="C89">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="C89" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>250</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2">
         <v>3660053346042</v>
       </c>
-      <c r="C91">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="C91" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B92" s="2">
         <v>4891663004926</v>
       </c>
-      <c r="C92">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="C92" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="2">
         <v>5603690001941</v>
       </c>
-      <c r="C93">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="C93" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B94" s="2">
         <v>4893629900037</v>
       </c>
-      <c r="C94">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="C94" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C95">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="C96" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2">
         <v>4895103606114</v>
       </c>
-      <c r="C97">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="C97" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C98">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="C99" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B100" s="2">
         <v>9313109836052</v>
       </c>
-      <c r="C100">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="C100" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C101">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C103">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="C104" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>258</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>353</v>
+      </c>
+      <c r="C106" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B107" s="2">
         <v>7640114723971</v>
       </c>
-      <c r="C107">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="C107" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>342</v>
+      </c>
+      <c r="C108" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B109" s="2">
         <v>4260016653621</v>
       </c>
-      <c r="C109">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="C109" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C110">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="C111" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B112" s="2">
         <v>4052682034268</v>
       </c>
-      <c r="C112">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="C112" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B113" s="2">
         <v>4030539035903</v>
       </c>
-      <c r="C113">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="C113" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>261</v>
+      </c>
+      <c r="C114" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C115">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>262</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="2">
         <v>5012617013613</v>
       </c>
-      <c r="C116">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="C116" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2">
         <v>4029125011537</v>
       </c>
-      <c r="C117">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="C117" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C118" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C118">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C119">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C120">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C121">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="C121" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B122" s="2">
         <v>5690528185034</v>
       </c>
-      <c r="C122">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="C122" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C123" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C123">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C124">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="C124" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2">
         <v>5099602317017</v>
       </c>
-      <c r="C125">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="C125" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C126">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>269</v>
+      </c>
+      <c r="C126" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B127" s="2">
         <v>5702191006704</v>
       </c>
-      <c r="C127">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="C127" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B128" s="2">
         <v>4891034043271</v>
       </c>
-      <c r="C128">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="C128" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B129" s="2">
         <v>9313109808189</v>
       </c>
-      <c r="C129">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="C129" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C130">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>270</v>
+      </c>
+      <c r="C130" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B131" s="2">
         <v>4030539222525</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="3">
         <f t="shared" ref="C131:C194" si="2">LEN(B131)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C132">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C133">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="C133" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B134" s="2">
         <v>4895103601355</v>
       </c>
-      <c r="C134">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="C134" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C135">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>273</v>
+      </c>
+      <c r="C135" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B136" s="2">
         <v>4895103601256</v>
       </c>
-      <c r="C136">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="C136" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C137">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>274</v>
+      </c>
+      <c r="C137" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2">
         <v>5060337260794</v>
       </c>
-      <c r="C138">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="C138" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C139">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>275</v>
+      </c>
+      <c r="C139" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B140" s="2">
         <v>95505398</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B141" s="2">
         <v>8436035566624</v>
       </c>
-      <c r="C141">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="C141" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C142">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>276</v>
+      </c>
+      <c r="C142" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B143" s="2">
         <v>8002660001399</v>
       </c>
-      <c r="C143">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="C143" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C144">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>277</v>
+      </c>
+      <c r="C144" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145" s="2">
         <v>3800714000597</v>
       </c>
-      <c r="C145">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="C145" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C146">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>278</v>
+      </c>
+      <c r="C146" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C147">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>279</v>
+      </c>
+      <c r="C147" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C148">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>280</v>
+      </c>
+      <c r="C148" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C149">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>281</v>
+      </c>
+      <c r="C149" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B150" s="2">
         <v>9316795006617</v>
       </c>
-      <c r="C150">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="C150" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2">
         <v>6091403218042</v>
       </c>
-      <c r="C151">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="C151" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C152" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C152">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C153">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="C153" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C154" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C154">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C155">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="C155" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C156">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>286</v>
+      </c>
+      <c r="C156" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B157" s="2">
         <v>4893629900105</v>
       </c>
-      <c r="C157">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="C157" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B158" s="2">
         <v>5413760229225</v>
       </c>
-      <c r="C158">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="C158" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B159" s="2">
         <v>4899338800422</v>
       </c>
-      <c r="C159">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="C159" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C160">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>287</v>
+      </c>
+      <c r="C160" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C161">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>343</v>
+      </c>
+      <c r="C161" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C162">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>288</v>
+      </c>
+      <c r="C162" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B163" s="2">
         <v>4715718227330</v>
       </c>
-      <c r="C163">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="C163" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B164" s="2">
         <v>4715718227033</v>
       </c>
-      <c r="C164">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="C164" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C165">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>289</v>
+      </c>
+      <c r="C165" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B166" s="2">
         <v>5000456014069</v>
       </c>
-      <c r="C166">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="C166" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B167" s="2">
         <v>3582910082699</v>
       </c>
-      <c r="C167">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="C167" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B168" s="2">
         <v>4895158502898</v>
       </c>
-      <c r="C168">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="C168" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C169">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>290</v>
+      </c>
+      <c r="C169" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B170" s="2">
         <v>4893776006620</v>
       </c>
-      <c r="C170">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="C170" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B171" s="2">
         <v>4987084302663</v>
       </c>
-      <c r="C171">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="C171" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B172" s="2">
         <v>4260016650705</v>
       </c>
-      <c r="C172">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="C172" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C173">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>291</v>
+      </c>
+      <c r="C173" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B174" s="2">
         <v>4897002622257</v>
       </c>
-      <c r="C174">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="C174" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C175" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C175">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C176">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="C176" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B177" s="2">
         <v>5702191023268</v>
       </c>
-      <c r="C177">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="C177" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B178" s="2">
         <v>3700567700012</v>
       </c>
-      <c r="C178">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="C178" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C179">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>294</v>
+      </c>
+      <c r="C179" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B180" s="2">
         <v>100304093024012</v>
       </c>
-      <c r="C180">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="C180" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B181" s="2">
         <v>7612098000362</v>
       </c>
-      <c r="C181">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="C181" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B182" s="2">
         <v>5997001380932</v>
       </c>
-      <c r="C182">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="C182" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B183" s="2">
         <v>4897056490260</v>
       </c>
-      <c r="C183">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="C183" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C184" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C184">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B185" s="2" t="s">
+      <c r="C185" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C185">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C186">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="C186" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B187" s="2">
         <v>4260016656851</v>
       </c>
-      <c r="C187">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="C187" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B188" s="2">
         <v>4052682064906</v>
       </c>
-      <c r="C188">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="C188" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C189">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>298</v>
+      </c>
+      <c r="C189" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B190" s="2">
         <v>4897042583013</v>
       </c>
-      <c r="C190">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="C190" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B191" s="2">
         <v>4897010454758</v>
       </c>
-      <c r="C191">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="C191" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C192">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>299</v>
+      </c>
+      <c r="C192" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C193" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C193">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C194">
+      <c r="C194" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B195" s="2">
         <v>9340404001229</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="3">
         <f t="shared" ref="C195:C258" si="3">LEN(B195)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C196" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C196">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B197" s="2" t="s">
+      <c r="C197" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C197">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C198">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="C198" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B199" s="2">
         <v>5014124170261</v>
       </c>
-      <c r="C199">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="C199" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B200" s="2">
         <v>6927924801107</v>
       </c>
-      <c r="C200">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="C200" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C201" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C201">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C202">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="C202" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B203" s="2">
         <v>9313109827159</v>
       </c>
-      <c r="C203">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="C203" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C204" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C205" s="3">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C206" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C207" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C208" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C204">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C205">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B206" s="2" t="s">
+      <c r="C209" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C206">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C207">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C208">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C209">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C210">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="C210" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C211">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>310</v>
+      </c>
+      <c r="C211" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C212">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>311</v>
+      </c>
+      <c r="C212" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B213" s="2">
         <v>4893629900075</v>
       </c>
-      <c r="C213">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="C213" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B214" s="2">
         <v>4893629900082</v>
       </c>
-      <c r="C214">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="C214" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B215" s="2">
         <v>4893629900068</v>
       </c>
-      <c r="C215">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="C215" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B216" s="2">
         <v>8901175029570</v>
       </c>
-      <c r="C216">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="C216" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C217">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>312</v>
+      </c>
+      <c r="C217" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B218" s="2">
         <v>3582910052647</v>
       </c>
-      <c r="C218">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="C218" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B219" s="2">
         <v>3582910052654</v>
       </c>
-      <c r="C219">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="C219" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C220">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>335</v>
+      </c>
+      <c r="C220" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B221" s="2">
         <v>3665585003012</v>
       </c>
-      <c r="C221">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="C221" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B222" s="2">
         <v>75094386</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="3">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C223" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C224" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C223">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C224">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C225">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="C225" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C226">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>316</v>
+      </c>
+      <c r="C226" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C227">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>317</v>
+      </c>
+      <c r="C227" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B228" s="2">
         <v>5291043001160</v>
       </c>
-      <c r="C228">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="C228" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B229" s="2">
         <v>5291043000354</v>
       </c>
-      <c r="C229">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="C229" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B230" s="2">
         <v>5291043000385</v>
       </c>
-      <c r="C230">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="C230" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B231" s="2">
         <v>4897046660185</v>
       </c>
-      <c r="C231">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="C231" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B232" s="2">
         <v>4897000501202</v>
       </c>
-      <c r="C232">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="C232" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B233" s="2">
         <v>9331134000118</v>
       </c>
-      <c r="C233">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="C233" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B234" s="2">
         <v>4893629900198</v>
       </c>
-      <c r="C234">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="C234" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C235" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C235">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="B236" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C236">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>319</v>
+      </c>
+      <c r="C236" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B237" s="2">
         <v>3664798045482</v>
       </c>
-      <c r="C237">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="C237" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C238">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>320</v>
+      </c>
+      <c r="C238" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C239">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>321</v>
+      </c>
+      <c r="C239" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C240">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>322</v>
+      </c>
+      <c r="C240" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C241">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>323</v>
+      </c>
+      <c r="C241" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B242" s="2">
         <v>8054083002279</v>
       </c>
-      <c r="C242">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="C242" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B243" s="2">
         <v>4030539071475</v>
       </c>
-      <c r="C243">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="C243" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C244">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>324</v>
+      </c>
+      <c r="C244" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C245">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>325</v>
+      </c>
+      <c r="C245" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B246" s="2">
         <v>9556492000130</v>
       </c>
-      <c r="C246">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="C246" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C247">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>326</v>
+      </c>
+      <c r="C247" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C248">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>327</v>
+      </c>
+      <c r="C248" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B249" s="2">
         <v>4895103603908</v>
       </c>
-      <c r="C249">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="C249" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C250" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C250">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="B251" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C251">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>345</v>
+      </c>
+      <c r="C251" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B252" s="2">
         <v>110801500110612</v>
       </c>
-      <c r="C252">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="C252" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C253">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>329</v>
+      </c>
+      <c r="C253" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B254" s="2">
         <v>4893645241459</v>
       </c>
-      <c r="C254">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="C254" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B255" s="2">
         <v>6923878313697</v>
       </c>
-      <c r="C255">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="C255" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B256" s="2">
         <v>4893629900839</v>
       </c>
-      <c r="C256">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="C256" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B257" s="2">
         <v>4893629900822</v>
       </c>
-      <c r="C257">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="C257" s="3">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C258">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>352</v>
+      </c>
+      <c r="C258" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C259">
+        <v>330</v>
+      </c>
+      <c r="C259" s="3">
         <f t="shared" ref="C259:C272" si="4">LEN(B259)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B260" s="2">
         <v>4823002246827</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B261" s="2">
         <v>5713844000000</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B262" s="2">
         <v>4895103601003</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C263">
+        <v>331</v>
+      </c>
+      <c r="C263" s="3">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B264" s="2">
         <v>4711914315215</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B265" s="2">
         <v>3582910055112</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B266" s="2">
         <v>3582910005810</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C267">
+        <v>332</v>
+      </c>
+      <c r="C267" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B268" s="2">
         <v>8435373701452</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C269">
+        <v>333</v>
+      </c>
+      <c r="C269" s="3">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B270" s="2">
         <v>4891034025703</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B271" s="2">
         <v>4891034025710</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C272">
+        <v>334</v>
+      </c>
+      <c r="C272" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="1" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C273" s="3">
+        <f>LEN(B273)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="C274" s="3">
+        <f>LEN(B274)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C273">
-        <f>LEN(B273)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="1"/>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="1"/>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="C275" s="3">
+        <f>LEN(B275)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
-      <c r="C286" s="3"/>
-    </row>
-    <row r="287" spans="1:3">
+      <c r="C286" s="4"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
-      <c r="C299" s="4"/>
-    </row>
-    <row r="300" spans="1:3">
+      <c r="C299" s="5"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
-      <c r="C306" s="3"/>
-    </row>
-    <row r="307" spans="1:3">
+      <c r="C306" s="4"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
-      <c r="C338" s="3"/>
-    </row>
-    <row r="339" spans="1:3">
+      <c r="C338" s="4"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
-      <c r="C346" s="3"/>
-    </row>
-    <row r="347" spans="1:3">
+      <c r="C346" s="4"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
-      <c r="C349" s="3"/>
-    </row>
-    <row r="350" spans="1:3">
+      <c r="C349" s="4"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
-      <c r="C350" s="3"/>
-    </row>
-    <row r="351" spans="1:3">
+      <c r="C350" s="4"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
-      <c r="C366" s="3"/>
-    </row>
-    <row r="367" spans="1:3">
+      <c r="C366" s="4"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
-      <c r="C377" s="3"/>
-    </row>
-    <row r="378" spans="1:3">
+      <c r="C377" s="4"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
-      <c r="C392" s="3"/>
-    </row>
-    <row r="393" spans="1:3">
+      <c r="C392" s="4"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
-      <c r="C404" s="3"/>
-    </row>
-    <row r="405" spans="1:3">
+      <c r="C404" s="4"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
-      <c r="C408" s="3"/>
-    </row>
-    <row r="409" spans="1:3">
+      <c r="C408" s="4"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
-      <c r="C422" s="3"/>
-    </row>
-    <row r="423" spans="1:3">
+      <c r="C422" s="4"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
     </row>
   </sheetData>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65216150-335B-489D-8652-868804A379AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33038A3-D728-4054-AAD8-02D3DCF10FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="359">
   <si>
     <t>ADRE12</t>
   </si>
@@ -693,9 +693,6 @@
     <t>4891768000052</t>
   </si>
   <si>
-    <t>66632</t>
-  </si>
-  <si>
     <t>2800941902016</t>
   </si>
   <si>
@@ -775,9 +772,6 @@
   </si>
   <si>
     <t>010489512669510</t>
-  </si>
-  <si>
-    <t>0104030539913386</t>
   </si>
   <si>
     <t>010403053991339</t>
@@ -1101,10 +1095,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TRAM02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1122,6 +1112,30 @@
   </si>
   <si>
     <t>156900000000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>020404772510132</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALBU06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>750943860000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>955053980000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>666320000000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010403053991338</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1129,7 +1143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1150,6 +1164,12 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1177,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,6 +1219,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,11 +1229,11 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1233,8 +1256,8 @@
   <autoFilter ref="A1:C275" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5AE9E73A-2FE1-484E-A390-EDC23A65F321}" name="Item Code" dataDxfId="2" dataCellStyle="ReportDataStyle"/>
-    <tableColumn id="2" xr3:uid="{4E2B1C1F-E74C-4D40-9BE8-EBBF62983B93}" name="Product_ID" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{CE3FC665-AEDB-4D3B-AC13-E55DCCFE4138}" name="LEN" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{4E2B1C1F-E74C-4D40-9BE8-EBBF62983B93}" name="Product_ID" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CE3FC665-AEDB-4D3B-AC13-E55DCCFE4138}" name="LEN" dataDxfId="1">
       <calculatedColumnFormula>LEN(B2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1542,7 +1565,7 @@
   <dimension ref="A1:C448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1583,7 @@
         <v>211</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1688,7 +1711,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
@@ -1712,11 +1735,11 @@
         <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>219</v>
+        <v>357</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1724,7 +1747,7 @@
         <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
@@ -1736,7 +1759,7 @@
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
@@ -1748,7 +1771,7 @@
         <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
@@ -1760,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="0"/>
@@ -1772,7 +1795,7 @@
         <v>199</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
@@ -1820,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
@@ -1844,7 +1867,7 @@
         <v>188</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="0"/>
@@ -1880,7 +1903,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="0"/>
@@ -1916,7 +1939,7 @@
         <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="0"/>
@@ -1928,7 +1951,7 @@
         <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="0"/>
@@ -1976,7 +1999,7 @@
         <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" si="0"/>
@@ -2012,7 +2035,7 @@
         <v>175</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" si="0"/>
@@ -2036,7 +2059,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" si="0"/>
@@ -2060,7 +2083,7 @@
         <v>198</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="3">
         <f t="shared" si="0"/>
@@ -2072,7 +2095,7 @@
         <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C44" s="3">
         <f t="shared" si="0"/>
@@ -2108,7 +2131,7 @@
         <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" si="0"/>
@@ -2120,7 +2143,7 @@
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C48" s="3">
         <f t="shared" si="0"/>
@@ -2132,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C49" s="3">
         <f t="shared" si="0"/>
@@ -2168,7 +2191,7 @@
         <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C52" s="3">
         <f t="shared" si="0"/>
@@ -2228,7 +2251,7 @@
         <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C57" s="3">
         <f t="shared" si="0"/>
@@ -2240,7 +2263,7 @@
         <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="3">
         <f t="shared" si="0"/>
@@ -2276,7 +2299,7 @@
         <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C61" s="3">
         <f t="shared" si="0"/>
@@ -2312,7 +2335,7 @@
         <v>36</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C64" s="3">
         <f t="shared" si="0"/>
@@ -2324,7 +2347,7 @@
         <v>36</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C65" s="3">
         <f t="shared" si="0"/>
@@ -2348,7 +2371,7 @@
         <v>208</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C67" s="3">
         <f t="shared" ref="C67:C130" si="1">LEN(B67)</f>
@@ -2372,7 +2395,7 @@
         <v>209</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C69" s="3">
         <f t="shared" si="1"/>
@@ -2384,7 +2407,7 @@
         <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C70" s="3">
         <f t="shared" si="1"/>
@@ -2396,7 +2419,7 @@
         <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C71" s="3">
         <f t="shared" si="1"/>
@@ -2408,7 +2431,7 @@
         <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C72" s="3">
         <f t="shared" si="1"/>
@@ -2468,7 +2491,7 @@
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C77" s="3">
         <f t="shared" si="1"/>
@@ -2492,11 +2515,11 @@
         <v>5</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="C79" s="3">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2504,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C80" s="3">
         <f t="shared" si="1"/>
@@ -2588,7 +2611,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C87" s="3">
         <f t="shared" si="1"/>
@@ -2600,7 +2623,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C88" s="3">
         <f t="shared" si="1"/>
@@ -2624,7 +2647,7 @@
         <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C90" s="3">
         <f t="shared" si="1"/>
@@ -2684,7 +2707,7 @@
         <v>55</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C95" s="3">
         <f t="shared" si="1"/>
@@ -2696,7 +2719,7 @@
         <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C96" s="3">
         <f t="shared" si="1"/>
@@ -2720,7 +2743,7 @@
         <v>156</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C98" s="3">
         <f t="shared" si="1"/>
@@ -2732,7 +2755,7 @@
         <v>72</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C99" s="3">
         <f t="shared" si="1"/>
@@ -2756,7 +2779,7 @@
         <v>73</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C101" s="3">
         <f t="shared" si="1"/>
@@ -2768,7 +2791,7 @@
         <v>73</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C102" s="3">
         <f t="shared" si="1"/>
@@ -2780,7 +2803,7 @@
         <v>158</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C103" s="3">
         <f t="shared" si="1"/>
@@ -2792,7 +2815,7 @@
         <v>158</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C104" s="3">
         <f t="shared" si="1"/>
@@ -2804,7 +2827,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C105" s="3">
         <f t="shared" si="1"/>
@@ -2816,7 +2839,7 @@
         <v>89</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C106" s="3">
         <f t="shared" si="1"/>
@@ -2840,7 +2863,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C108" s="3">
         <f t="shared" si="1"/>
@@ -2864,7 +2887,7 @@
         <v>74</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C110" s="3">
         <f t="shared" si="1"/>
@@ -2876,7 +2899,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C111" s="3">
         <f t="shared" si="1"/>
@@ -2912,7 +2935,7 @@
         <v>11</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C114" s="3">
         <f t="shared" si="1"/>
@@ -2924,7 +2947,7 @@
         <v>46</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C115" s="3">
         <f t="shared" si="1"/>
@@ -2960,7 +2983,7 @@
         <v>59</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C118" s="3">
         <f t="shared" si="1"/>
@@ -2972,7 +2995,7 @@
         <v>59</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C119" s="3">
         <f t="shared" si="1"/>
@@ -2984,7 +3007,7 @@
         <v>161</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C120" s="3">
         <f t="shared" si="1"/>
@@ -2996,7 +3019,7 @@
         <v>192</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C121" s="3">
         <f t="shared" si="1"/>
@@ -3020,7 +3043,7 @@
         <v>75</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C123" s="3">
         <f t="shared" si="1"/>
@@ -3032,7 +3055,7 @@
         <v>75</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C124" s="3">
         <f t="shared" si="1"/>
@@ -3056,7 +3079,7 @@
         <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C126" s="3">
         <f t="shared" si="1"/>
@@ -3104,7 +3127,7 @@
         <v>62</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C130" s="3">
         <f t="shared" si="1"/>
@@ -3128,7 +3151,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C132" s="3">
         <f t="shared" si="2"/>
@@ -3140,7 +3163,7 @@
         <v>15</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C133" s="3">
         <f t="shared" si="2"/>
@@ -3164,7 +3187,7 @@
         <v>169</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C135" s="3">
         <f t="shared" si="2"/>
@@ -3188,7 +3211,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C137" s="3">
         <f t="shared" si="2"/>
@@ -3212,7 +3235,7 @@
         <v>48</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C139" s="3">
         <f t="shared" si="2"/>
@@ -3223,12 +3246,12 @@
       <c r="A140" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B140" s="2">
-        <v>95505398</v>
+      <c r="B140" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="C140" s="3">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3248,7 +3271,7 @@
         <v>60</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C142" s="3">
         <f t="shared" si="2"/>
@@ -3272,7 +3295,7 @@
         <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C144" s="3">
         <f t="shared" si="2"/>
@@ -3296,7 +3319,7 @@
         <v>138</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C146" s="3">
         <f t="shared" si="2"/>
@@ -3308,7 +3331,7 @@
         <v>49</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C147" s="3">
         <f t="shared" si="2"/>
@@ -3320,7 +3343,7 @@
         <v>17</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C148" s="3">
         <f t="shared" si="2"/>
@@ -3332,7 +3355,7 @@
         <v>18</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C149" s="3">
         <f t="shared" si="2"/>
@@ -3368,7 +3391,7 @@
         <v>114</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C152" s="3">
         <f t="shared" si="2"/>
@@ -3380,7 +3403,7 @@
         <v>114</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C153" s="3">
         <f t="shared" si="2"/>
@@ -3392,7 +3415,7 @@
         <v>20</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C154" s="3">
         <f t="shared" si="2"/>
@@ -3404,7 +3427,7 @@
         <v>115</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C155" s="3">
         <f t="shared" si="2"/>
@@ -3416,7 +3439,7 @@
         <v>50</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C156" s="3">
         <f t="shared" si="2"/>
@@ -3464,7 +3487,7 @@
         <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C160" s="3">
         <f t="shared" si="2"/>
@@ -3476,7 +3499,7 @@
         <v>21</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C161" s="3">
         <f t="shared" si="2"/>
@@ -3488,7 +3511,7 @@
         <v>21</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C162" s="3">
         <f t="shared" si="2"/>
@@ -3524,7 +3547,7 @@
         <v>22</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C165" s="3">
         <f t="shared" si="2"/>
@@ -3572,7 +3595,7 @@
         <v>194</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C169" s="3">
         <f t="shared" si="2"/>
@@ -3620,7 +3643,7 @@
         <v>117</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C173" s="3">
         <f t="shared" si="2"/>
@@ -3644,7 +3667,7 @@
         <v>129</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C175" s="3">
         <f t="shared" si="2"/>
@@ -3656,7 +3679,7 @@
         <v>129</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C176" s="3">
         <f t="shared" si="2"/>
@@ -3692,7 +3715,7 @@
         <v>76</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C179" s="3">
         <f t="shared" si="2"/>
@@ -3752,7 +3775,7 @@
         <v>177</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C184" s="3">
         <f t="shared" si="2"/>
@@ -3764,7 +3787,7 @@
         <v>204</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C185" s="3">
         <f t="shared" si="2"/>
@@ -3776,7 +3799,7 @@
         <v>130</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C186" s="3">
         <f t="shared" si="2"/>
@@ -3812,7 +3835,7 @@
         <v>92</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C189" s="3">
         <f t="shared" si="2"/>
@@ -3848,7 +3871,7 @@
         <v>23</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C192" s="3">
         <f t="shared" si="2"/>
@@ -3860,7 +3883,7 @@
         <v>24</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C193" s="3">
         <f t="shared" si="2"/>
@@ -3872,7 +3895,7 @@
         <v>78</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C194" s="3">
         <f t="shared" si="2"/>
@@ -3896,7 +3919,7 @@
         <v>139</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C196" s="3">
         <f t="shared" si="3"/>
@@ -3908,7 +3931,7 @@
         <v>205</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C197" s="3">
         <f t="shared" si="3"/>
@@ -3920,7 +3943,7 @@
         <v>147</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C198" s="3">
         <f t="shared" si="3"/>
@@ -3956,7 +3979,7 @@
         <v>189</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C201" s="3">
         <f t="shared" si="3"/>
@@ -3968,7 +3991,7 @@
         <v>180</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C202" s="3">
         <f t="shared" si="3"/>
@@ -3992,7 +4015,7 @@
         <v>173</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C204" s="3">
         <f t="shared" si="3"/>
@@ -4004,11 +4027,11 @@
         <v>173</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>219</v>
+        <v>357</v>
       </c>
       <c r="C205" s="3">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -4016,7 +4039,7 @@
         <v>173</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C206" s="3">
         <f t="shared" si="3"/>
@@ -4028,7 +4051,7 @@
         <v>132</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C207" s="3">
         <f t="shared" si="3"/>
@@ -4040,7 +4063,7 @@
         <v>56</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C208" s="3">
         <f t="shared" si="3"/>
@@ -4052,7 +4075,7 @@
         <v>148</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C209" s="3">
         <f t="shared" si="3"/>
@@ -4064,7 +4087,7 @@
         <v>149</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C210" s="3">
         <f t="shared" si="3"/>
@@ -4076,7 +4099,7 @@
         <v>25</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C211" s="3">
         <f t="shared" si="3"/>
@@ -4088,7 +4111,7 @@
         <v>52</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C212" s="3">
         <f t="shared" si="3"/>
@@ -4148,7 +4171,7 @@
         <v>39</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C217" s="3">
         <f t="shared" si="3"/>
@@ -4184,7 +4207,7 @@
         <v>157</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C220" s="3">
         <f t="shared" si="3"/>
@@ -4207,12 +4230,12 @@
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B222" s="2">
-        <v>75094386</v>
+      <c r="B222" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="C222" s="3">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -4220,7 +4243,7 @@
         <v>27</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C223" s="3">
         <f t="shared" si="3"/>
@@ -4232,7 +4255,7 @@
         <v>79</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C224" s="3">
         <f t="shared" si="3"/>
@@ -4244,7 +4267,7 @@
         <v>79</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C225" s="3">
         <f t="shared" si="3"/>
@@ -4256,7 +4279,7 @@
         <v>28</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C226" s="3">
         <f t="shared" si="3"/>
@@ -4268,7 +4291,7 @@
         <v>29</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C227" s="3">
         <f t="shared" si="3"/>
@@ -4364,7 +4387,7 @@
         <v>80</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C235" s="3">
         <f t="shared" si="3"/>
@@ -4376,7 +4399,7 @@
         <v>81</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C236" s="3">
         <f t="shared" si="3"/>
@@ -4400,7 +4423,7 @@
         <v>120</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C238" s="3">
         <f t="shared" si="3"/>
@@ -4412,7 +4435,7 @@
         <v>31</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C239" s="3">
         <f t="shared" si="3"/>
@@ -4424,7 +4447,7 @@
         <v>31</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C240" s="3">
         <f t="shared" si="3"/>
@@ -4436,7 +4459,7 @@
         <v>94</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C241" s="3">
         <f t="shared" si="3"/>
@@ -4472,7 +4495,7 @@
         <v>32</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C244" s="3">
         <f t="shared" si="3"/>
@@ -4484,7 +4507,7 @@
         <v>155</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C245" s="3">
         <f t="shared" si="3"/>
@@ -4508,7 +4531,7 @@
         <v>150</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C247" s="3">
         <f t="shared" si="3"/>
@@ -4520,7 +4543,7 @@
         <v>196</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C248" s="3">
         <f t="shared" si="3"/>
@@ -4544,7 +4567,7 @@
         <v>121</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C250" s="3">
         <f t="shared" si="3"/>
@@ -4556,7 +4579,7 @@
         <v>122</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C251" s="3">
         <f t="shared" si="3"/>
@@ -4580,7 +4603,7 @@
         <v>140</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C253" s="3">
         <f t="shared" si="3"/>
@@ -4637,10 +4660,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C258" s="3">
         <f t="shared" si="3"/>
@@ -4649,10 +4672,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C259" s="3">
         <f t="shared" ref="C259:C272" si="4">LEN(B259)</f>
@@ -4700,7 +4723,7 @@
         <v>123</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C263" s="3">
         <f t="shared" si="4"/>
@@ -4748,7 +4771,7 @@
         <v>124</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C267" s="3">
         <f t="shared" si="4"/>
@@ -4772,7 +4795,7 @@
         <v>83</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C269" s="3">
         <f t="shared" si="4"/>
@@ -4808,7 +4831,7 @@
         <v>207</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C272" s="3">
         <f t="shared" si="4"/>
@@ -4817,10 +4840,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C273" s="3">
         <f>LEN(B273)</f>
@@ -4829,26 +4852,26 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C274" s="3">
         <f>LEN(B274)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="C275" s="3">
         <f>LEN(B275)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33038A3-D728-4054-AAD8-02D3DCF10FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C080DC81-90DE-47D1-88AC-3EDE63552345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="361">
   <si>
     <t>ADRE12</t>
   </si>
@@ -1136,6 +1136,14 @@
   </si>
   <si>
     <t>010403053991338</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZOLE01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010489704258412</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1229,11 +1237,11 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1252,12 +1260,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C275" totalsRowShown="0">
-  <autoFilter ref="A1:C275" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C276" totalsRowShown="0">
+  <autoFilter ref="A1:C276" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5AE9E73A-2FE1-484E-A390-EDC23A65F321}" name="Item Code" dataDxfId="2" dataCellStyle="ReportDataStyle"/>
-    <tableColumn id="2" xr3:uid="{4E2B1C1F-E74C-4D40-9BE8-EBBF62983B93}" name="Product_ID" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{CE3FC665-AEDB-4D3B-AC13-E55DCCFE4138}" name="LEN" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{4E2B1C1F-E74C-4D40-9BE8-EBBF62983B93}" name="Product_ID" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CE3FC665-AEDB-4D3B-AC13-E55DCCFE4138}" name="LEN" dataDxfId="0">
       <calculatedColumnFormula>LEN(B2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1564,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275B10A-B004-4409-84F2-80D485207F9B}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="J275" sqref="J275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4875,7 +4883,16 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
+      <c r="A276" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C276" s="3">
+        <f>LEN(B276)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C080DC81-90DE-47D1-88AC-3EDE63552345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4423D4-507C-430C-B19E-E1ADB5DAFC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="363">
   <si>
     <t>ADRE12</t>
   </si>
@@ -1144,6 +1144,14 @@
   </si>
   <si>
     <t>010489704258412</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMET02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>244100000000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1260,8 +1268,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C276" totalsRowShown="0">
-  <autoFilter ref="A1:C276" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C277" totalsRowShown="0">
+  <autoFilter ref="A1:C277" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5AE9E73A-2FE1-484E-A390-EDC23A65F321}" name="Item Code" dataDxfId="2" dataCellStyle="ReportDataStyle"/>
     <tableColumn id="2" xr3:uid="{4E2B1C1F-E74C-4D40-9BE8-EBBF62983B93}" name="Product_ID" dataDxfId="1"/>
@@ -1573,7 +1581,7 @@
   <dimension ref="A1:C448"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="J275" sqref="J275"/>
+      <selection activeCell="B278" sqref="B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4895,7 +4903,16 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
+      <c r="A277" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C277" s="3">
+        <f>LEN(B277)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4423D4-507C-430C-B19E-E1ADB5DAFC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85DE045-9BD2-4EA4-A74E-F2E767C4A746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="366">
   <si>
     <t>ADRE12</t>
   </si>
@@ -1152,6 +1152,18 @@
   </si>
   <si>
     <t>244100000000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHEN85</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010121000113568</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1210001135680</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1268,8 +1280,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C277" totalsRowShown="0">
-  <autoFilter ref="A1:C277" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C279" totalsRowShown="0">
+  <autoFilter ref="A1:C279" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5AE9E73A-2FE1-484E-A390-EDC23A65F321}" name="Item Code" dataDxfId="2" dataCellStyle="ReportDataStyle"/>
     <tableColumn id="2" xr3:uid="{4E2B1C1F-E74C-4D40-9BE8-EBBF62983B93}" name="Product_ID" dataDxfId="1"/>
@@ -1581,7 +1593,7 @@
   <dimension ref="A1:C448"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="B278" sqref="B278"/>
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4915,10 +4927,28 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
+      <c r="A278" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C278" s="3">
+        <f>LEN(B278)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
+      <c r="A279" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C279" s="3">
+        <f>LEN(B279)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85DE045-9BD2-4EA4-A74E-F2E767C4A746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C1E86-4D6F-4C80-AE82-66D5FB7606CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA724D10-F455-4181-A848-1627E2DAE212}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="368">
   <si>
     <t>ADRE12</t>
   </si>
@@ -1164,6 +1164,14 @@
   </si>
   <si>
     <t>1210001135680</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARA31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>172130101000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1280,8 +1288,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C279" totalsRowShown="0">
-  <autoFilter ref="A1:C279" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}" name="Table1" displayName="Table1" ref="A1:C280" totalsRowShown="0">
+  <autoFilter ref="A1:C280" xr:uid="{9BA04B95-62DD-470E-B068-AD3399E9EBDC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5AE9E73A-2FE1-484E-A390-EDC23A65F321}" name="Item Code" dataDxfId="2" dataCellStyle="ReportDataStyle"/>
     <tableColumn id="2" xr3:uid="{4E2B1C1F-E74C-4D40-9BE8-EBBF62983B93}" name="Product_ID" dataDxfId="1"/>
@@ -1593,7 +1601,7 @@
   <dimension ref="A1:C448"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+      <selection activeCell="F265" sqref="F265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4874,7 +4882,7 @@
         <v>345</v>
       </c>
       <c r="C273" s="3">
-        <f>LEN(B273)</f>
+        <f t="shared" ref="C273:C279" si="5">LEN(B273)</f>
         <v>15</v>
       </c>
     </row>
@@ -4886,7 +4894,7 @@
         <v>347</v>
       </c>
       <c r="C274" s="3">
-        <f>LEN(B274)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -4898,7 +4906,7 @@
         <v>353</v>
       </c>
       <c r="C275" s="3">
-        <f>LEN(B275)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -4910,7 +4918,7 @@
         <v>360</v>
       </c>
       <c r="C276" s="3">
-        <f>LEN(B276)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -4922,7 +4930,7 @@
         <v>362</v>
       </c>
       <c r="C277" s="3">
-        <f>LEN(B277)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -4934,7 +4942,7 @@
         <v>364</v>
       </c>
       <c r="C278" s="3">
-        <f>LEN(B278)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -4946,12 +4954,21 @@
         <v>365</v>
       </c>
       <c r="C279" s="3">
-        <f>LEN(B279)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
+      <c r="A280" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C280" s="3">
+        <f>LEN(B280)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>

--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C449"/>
+  <dimension ref="A1:B450"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -409,9 +409,6 @@
       <c r="B1" t="str">
         <v>Product_ID</v>
       </c>
-      <c r="C1" t="str">
-        <v>LEN</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -420,9 +417,6 @@
       <c r="B2" t="str">
         <v>010502169116537</v>
       </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -431,9 +425,6 @@
       <c r="B3">
         <v>4895003400249</v>
       </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -442,9 +433,6 @@
       <c r="B4" t="str">
         <v>010489500340016</v>
       </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -453,9 +441,6 @@
       <c r="B5">
         <v>4895003400164</v>
       </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -464,9 +449,6 @@
       <c r="B6" t="str">
         <v>81501070302110454382</v>
       </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -475,9 +457,6 @@
       <c r="B7" t="str">
         <v>6933743787201</v>
       </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -486,9 +465,6 @@
       <c r="B8">
         <v>9313109800152</v>
       </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -497,9 +473,6 @@
       <c r="B9">
         <v>9313109800053</v>
       </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -508,9 +481,6 @@
       <c r="B10" t="str">
         <v>010404772510132</v>
       </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -519,9 +489,6 @@
       <c r="B11" t="str">
         <v>4711916011337</v>
       </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -530,9 +497,6 @@
       <c r="B12" t="str">
         <v>166300000000000</v>
       </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -541,9 +505,6 @@
       <c r="B13" t="str">
         <v>4891768000052</v>
       </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -552,9 +513,6 @@
       <c r="B14" t="str">
         <v>666320000000000</v>
       </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -563,9 +521,6 @@
       <c r="B15" t="str">
         <v>2800941902016</v>
       </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -574,9 +529,6 @@
       <c r="B16" t="str">
         <v>3582910079750</v>
       </c>
-      <c r="C16">
-        <v>13</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -585,9 +537,6 @@
       <c r="B17" t="str">
         <v>3582910008934</v>
       </c>
-      <c r="C17">
-        <v>13</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -596,9 +545,6 @@
       <c r="B18" t="str">
         <v>010489326830056</v>
       </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -607,9 +553,6 @@
       <c r="B19" t="str">
         <v>010426009568306</v>
       </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -618,9 +561,6 @@
       <c r="B20">
         <v>4260095683069</v>
       </c>
-      <c r="C20">
-        <v>13</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -629,9 +569,6 @@
       <c r="B21">
         <v>5010724533819</v>
       </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -640,9 +577,6 @@
       <c r="B22">
         <v>4895103611064</v>
       </c>
-      <c r="C22">
-        <v>13</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -651,9 +585,6 @@
       <c r="B23" t="str">
         <v>010489510361106</v>
       </c>
-      <c r="C23">
-        <v>15</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -662,9 +593,6 @@
       <c r="B24">
         <v>5024071230130</v>
       </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -673,9 +601,6 @@
       <c r="B25" t="str">
         <v>010489704258325</v>
       </c>
-      <c r="C25">
-        <v>15</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -684,9 +609,6 @@
       <c r="B26">
         <v>4897042583259</v>
       </c>
-      <c r="C26">
-        <v>13</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -695,9 +617,6 @@
       <c r="B27">
         <v>8993430102821</v>
       </c>
-      <c r="C27">
-        <v>13</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -706,9 +625,6 @@
       <c r="B28" t="str">
         <v>010501412417005</v>
       </c>
-      <c r="C28">
-        <v>15</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -717,9 +633,6 @@
       <c r="B29">
         <v>5014124170056</v>
       </c>
-      <c r="C29">
-        <v>13</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -728,9 +641,6 @@
       <c r="B30">
         <v>4897104270189</v>
       </c>
-      <c r="C30">
-        <v>13</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -739,9 +649,6 @@
       <c r="B31" t="str">
         <v>010498750111670</v>
       </c>
-      <c r="C31">
-        <v>15</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -750,9 +657,6 @@
       <c r="B32" t="str">
         <v>0801500110813</v>
       </c>
-      <c r="C32">
-        <v>13</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -761,9 +665,6 @@
       <c r="B33">
         <v>5026468000296</v>
       </c>
-      <c r="C33">
-        <v>13</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -772,9 +673,6 @@
       <c r="B34">
         <v>6091403218752</v>
       </c>
-      <c r="C34">
-        <v>13</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -783,9 +681,6 @@
       <c r="B35">
         <v>6091403218028</v>
       </c>
-      <c r="C35">
-        <v>13</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -794,9 +689,6 @@
       <c r="B36" t="str">
         <v>9329829004343</v>
       </c>
-      <c r="C36">
-        <v>13</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -805,9 +697,6 @@
       <c r="B37">
         <v>4892018047254</v>
       </c>
-      <c r="C37">
-        <v>13</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -816,9 +705,6 @@
       <c r="B38">
         <v>4891663004940</v>
       </c>
-      <c r="C38">
-        <v>13</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -827,9 +713,6 @@
       <c r="B39" t="str">
         <v>010501412417010</v>
       </c>
-      <c r="C39">
-        <v>15</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -838,9 +721,6 @@
       <c r="B40">
         <v>5014124170100</v>
       </c>
-      <c r="C40">
-        <v>13</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -849,9 +729,6 @@
       <c r="B41" t="str">
         <v>4713680234516</v>
       </c>
-      <c r="C41">
-        <v>13</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -860,9 +737,6 @@
       <c r="B42">
         <v>4893776001359</v>
       </c>
-      <c r="C42">
-        <v>13</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -871,9 +745,6 @@
       <c r="B43" t="str">
         <v>010489377600135</v>
       </c>
-      <c r="C43">
-        <v>15</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -882,9 +753,6 @@
       <c r="B44" t="str">
         <v>0064642022004</v>
       </c>
-      <c r="C44">
-        <v>13</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -893,9 +761,6 @@
       <c r="B45">
         <v>8906080480034</v>
       </c>
-      <c r="C45">
-        <v>13</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -904,9 +769,6 @@
       <c r="B46">
         <v>8906080480034</v>
       </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -915,9 +777,6 @@
       <c r="B47" t="str">
         <v>4895103600327</v>
       </c>
-      <c r="C47">
-        <v>13</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -926,9 +785,6 @@
       <c r="B48" t="str">
         <v>010489510360032</v>
       </c>
-      <c r="C48">
-        <v>15</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -937,9 +793,6 @@
       <c r="B49" t="str">
         <v>8853872005954</v>
       </c>
-      <c r="C49">
-        <v>13</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -948,9 +801,6 @@
       <c r="B50">
         <v>8854927005011</v>
       </c>
-      <c r="C50">
-        <v>13</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -959,9 +809,6 @@
       <c r="B51">
         <v>4895126673520</v>
       </c>
-      <c r="C51">
-        <v>13</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -970,9 +817,6 @@
       <c r="B52" t="str">
         <v>010489512667352</v>
       </c>
-      <c r="C52">
-        <v>15</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -981,9 +825,6 @@
       <c r="B53">
         <v>9350279000180</v>
       </c>
-      <c r="C53">
-        <v>13</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -992,9 +833,6 @@
       <c r="B54">
         <v>4894281008208</v>
       </c>
-      <c r="C54">
-        <v>13</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -1003,9 +841,6 @@
       <c r="B55">
         <v>8936106321065</v>
       </c>
-      <c r="C55">
-        <v>13</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -1014,9 +849,6 @@
       <c r="B56">
         <v>5000223446741</v>
       </c>
-      <c r="C56">
-        <v>13</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1025,9 +857,6 @@
       <c r="B57" t="str">
         <v>4895103600556</v>
       </c>
-      <c r="C57">
-        <v>13</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1036,9 +865,6 @@
       <c r="B58" t="str">
         <v>010489510360055</v>
       </c>
-      <c r="C58">
-        <v>15</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1047,9 +873,6 @@
       <c r="B59">
         <v>9556258002835</v>
       </c>
-      <c r="C59">
-        <v>13</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1058,9 +881,6 @@
       <c r="B60">
         <v>4895103607241</v>
       </c>
-      <c r="C60">
-        <v>13</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1069,9 +889,6 @@
       <c r="B61" t="str">
         <v>010489510360724</v>
       </c>
-      <c r="C61">
-        <v>15</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1080,9 +897,6 @@
       <c r="B62">
         <v>8902346024363</v>
       </c>
-      <c r="C62">
-        <v>13</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1091,9 +905,6 @@
       <c r="B63">
         <v>4891034025680</v>
       </c>
-      <c r="C63">
-        <v>13</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1102,9 +913,6 @@
       <c r="B64" t="str">
         <v>0798232260049</v>
       </c>
-      <c r="C64">
-        <v>13</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1113,9 +921,6 @@
       <c r="B65" t="str">
         <v>010079823226004</v>
       </c>
-      <c r="C65">
-        <v>15</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1124,9 +929,6 @@
       <c r="B66">
         <v>8885018070069</v>
       </c>
-      <c r="C66">
-        <v>13</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1135,9 +937,6 @@
       <c r="B67" t="str">
         <v>010888501807006</v>
       </c>
-      <c r="C67">
-        <v>15</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1146,9 +945,6 @@
       <c r="B68">
         <v>8885018070076</v>
       </c>
-      <c r="C68">
-        <v>13</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1157,9 +953,6 @@
       <c r="B69" t="str">
         <v>010888501807007</v>
       </c>
-      <c r="C69">
-        <v>15</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1168,9 +961,6 @@
       <c r="B70" t="str">
         <v>4260016651306</v>
       </c>
-      <c r="C70">
-        <v>13</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1179,9 +969,6 @@
       <c r="B71" t="str">
         <v>010426001665130</v>
       </c>
-      <c r="C71">
-        <v>15</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1190,9 +977,6 @@
       <c r="B72" t="str">
         <v>010005760640702</v>
       </c>
-      <c r="C72">
-        <v>15</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1201,9 +985,6 @@
       <c r="B73">
         <v>57606407023</v>
       </c>
-      <c r="C73">
-        <v>11</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1212,9 +993,6 @@
       <c r="B74">
         <v>9556492002707</v>
       </c>
-      <c r="C74">
-        <v>13</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1223,9 +1001,6 @@
       <c r="B75">
         <v>6432100052995</v>
       </c>
-      <c r="C75">
-        <v>13</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1234,9 +1009,6 @@
       <c r="B76">
         <v>4895126695102</v>
       </c>
-      <c r="C76">
-        <v>13</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1245,9 +1017,6 @@
       <c r="B77" t="str">
         <v>010489512669510</v>
       </c>
-      <c r="C77">
-        <v>15</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1256,9 +1025,6 @@
       <c r="B78">
         <v>4030539913393</v>
       </c>
-      <c r="C78">
-        <v>13</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1267,9 +1033,6 @@
       <c r="B79" t="str">
         <v>010403053991338</v>
       </c>
-      <c r="C79">
-        <v>15</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1278,9 +1041,6 @@
       <c r="B80" t="str">
         <v>010403053991339</v>
       </c>
-      <c r="C80">
-        <v>15</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1289,9 +1049,6 @@
       <c r="B81">
         <v>4895158500290</v>
       </c>
-      <c r="C81">
-        <v>13</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1300,9 +1057,6 @@
       <c r="B82">
         <v>4895158500313</v>
       </c>
-      <c r="C82">
-        <v>13</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1311,9 +1065,6 @@
       <c r="B83">
         <v>9316626102105</v>
       </c>
-      <c r="C83">
-        <v>13</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1322,9 +1073,6 @@
       <c r="B84">
         <v>9555701010083</v>
       </c>
-      <c r="C84">
-        <v>13</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1333,9 +1081,6 @@
       <c r="B85">
         <v>114987051142039</v>
       </c>
-      <c r="C85">
-        <v>15</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1344,9 +1089,6 @@
       <c r="B86">
         <v>4893268338451</v>
       </c>
-      <c r="C86">
-        <v>13</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1355,9 +1097,6 @@
       <c r="B87" t="str">
         <v>0801500110783</v>
       </c>
-      <c r="C87">
-        <v>13</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1366,9 +1105,6 @@
       <c r="B88" t="str">
         <v>010489510361122</v>
       </c>
-      <c r="C88">
-        <v>15</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1377,9 +1113,6 @@
       <c r="B89">
         <v>4895103611224</v>
       </c>
-      <c r="C89">
-        <v>13</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1388,9 +1121,6 @@
       <c r="B90" t="str">
         <v>010366005334604</v>
       </c>
-      <c r="C90">
-        <v>15</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1399,9 +1129,6 @@
       <c r="B91">
         <v>3660053346042</v>
       </c>
-      <c r="C91">
-        <v>13</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1410,9 +1137,6 @@
       <c r="B92">
         <v>4891663004926</v>
       </c>
-      <c r="C92">
-        <v>13</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1421,9 +1145,6 @@
       <c r="B93">
         <v>5603690001941</v>
       </c>
-      <c r="C93">
-        <v>13</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1432,9 +1153,6 @@
       <c r="B94">
         <v>4893629900037</v>
       </c>
-      <c r="C94">
-        <v>13</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1443,9 +1161,6 @@
       <c r="B95" t="str">
         <v>6091403218738</v>
       </c>
-      <c r="C95">
-        <v>13</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -1454,9 +1169,6 @@
       <c r="B96" t="str">
         <v>010489510360611</v>
       </c>
-      <c r="C96">
-        <v>15</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -1465,9 +1177,6 @@
       <c r="B97">
         <v>4895103606114</v>
       </c>
-      <c r="C97">
-        <v>13</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -1476,9 +1185,6 @@
       <c r="B98" t="str">
         <v>3582910029397</v>
       </c>
-      <c r="C98">
-        <v>13</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -1487,9 +1193,6 @@
       <c r="B99" t="str">
         <v>3582910029373</v>
       </c>
-      <c r="C99">
-        <v>13</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -1498,9 +1201,6 @@
       <c r="B100">
         <v>9313109836052</v>
       </c>
-      <c r="C100">
-        <v>13</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -1509,9 +1209,6 @@
       <c r="B101" t="str">
         <v>012031001911501</v>
       </c>
-      <c r="C101">
-        <v>15</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -1520,9 +1217,6 @@
       <c r="B102" t="str">
         <v>0310019115016</v>
       </c>
-      <c r="C102">
-        <v>13</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -1531,9 +1225,6 @@
       <c r="B103" t="str">
         <v>4897042582306</v>
       </c>
-      <c r="C103">
-        <v>13</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -1542,9 +1233,6 @@
       <c r="B104" t="str">
         <v>010489704258230</v>
       </c>
-      <c r="C104">
-        <v>15</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -1553,9 +1241,6 @@
       <c r="B105" t="str">
         <v>8435232322415</v>
       </c>
-      <c r="C105">
-        <v>13</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -1564,9 +1249,6 @@
       <c r="B106" t="str">
         <v>219086100000000</v>
       </c>
-      <c r="C106">
-        <v>15</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -1575,9 +1257,6 @@
       <c r="B107">
         <v>7640114723971</v>
       </c>
-      <c r="C107">
-        <v>13</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -1586,9 +1265,6 @@
       <c r="B108" t="str">
         <v>0301320005455</v>
       </c>
-      <c r="C108">
-        <v>13</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -1597,9 +1273,6 @@
       <c r="B109">
         <v>4260016653621</v>
       </c>
-      <c r="C109">
-        <v>13</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -1608,9 +1281,6 @@
       <c r="B110" t="str">
         <v>010426001665362</v>
       </c>
-      <c r="C110">
-        <v>15</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -1619,9 +1289,6 @@
       <c r="B111" t="str">
         <v>011890602596883</v>
       </c>
-      <c r="C111">
-        <v>15</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -1630,9 +1297,6 @@
       <c r="B112">
         <v>4052682034268</v>
       </c>
-      <c r="C112">
-        <v>13</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -1641,9 +1305,6 @@
       <c r="B113">
         <v>4030539035903</v>
       </c>
-      <c r="C113">
-        <v>13</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -1652,9 +1313,6 @@
       <c r="B114" t="str">
         <v>010403053903591</v>
       </c>
-      <c r="C114">
-        <v>15</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -1663,9 +1321,6 @@
       <c r="B115" t="str">
         <v>010489703879004</v>
       </c>
-      <c r="C115">
-        <v>15</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -1674,9 +1329,6 @@
       <c r="B116">
         <v>5012617013613</v>
       </c>
-      <c r="C116">
-        <v>13</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -1685,9 +1337,6 @@
       <c r="B117">
         <v>4029125011537</v>
       </c>
-      <c r="C117">
-        <v>13</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -1696,9 +1345,6 @@
       <c r="B118" t="str">
         <v>4260016650828</v>
       </c>
-      <c r="C118">
-        <v>13</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -1707,9 +1353,6 @@
       <c r="B119" t="str">
         <v>010426001665082</v>
       </c>
-      <c r="C119">
-        <v>15</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -1718,9 +1361,6 @@
       <c r="B120" t="str">
         <v>4987015221216</v>
       </c>
-      <c r="C120">
-        <v>13</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -1729,9 +1369,6 @@
       <c r="B121" t="str">
         <v>010569052818503</v>
       </c>
-      <c r="C121">
-        <v>15</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -1740,9 +1377,6 @@
       <c r="B122">
         <v>5690528185034</v>
       </c>
-      <c r="C122">
-        <v>13</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -1751,9 +1385,6 @@
       <c r="B123" t="str">
         <v>4260016651474</v>
       </c>
-      <c r="C123">
-        <v>13</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -1762,9 +1393,6 @@
       <c r="B124" t="str">
         <v>010426001665147</v>
       </c>
-      <c r="C124">
-        <v>15</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -1773,9 +1401,6 @@
       <c r="B125">
         <v>5099602317017</v>
       </c>
-      <c r="C125">
-        <v>13</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -1784,9 +1409,6 @@
       <c r="B126" t="str">
         <v>010509960200129</v>
       </c>
-      <c r="C126">
-        <v>15</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -1795,9 +1417,6 @@
       <c r="B127">
         <v>5702191006704</v>
       </c>
-      <c r="C127">
-        <v>13</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -1806,9 +1425,6 @@
       <c r="B128">
         <v>4891034043271</v>
       </c>
-      <c r="C128">
-        <v>13</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -1817,9 +1433,6 @@
       <c r="B129">
         <v>9313109808189</v>
       </c>
-      <c r="C129">
-        <v>13</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -1828,9 +1441,6 @@
       <c r="B130" t="str">
         <v>010403053922252</v>
       </c>
-      <c r="C130">
-        <v>15</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -1839,9 +1449,6 @@
       <c r="B131">
         <v>4030539222525</v>
       </c>
-      <c r="C131">
-        <v>13</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -1850,9 +1457,6 @@
       <c r="B132" t="str">
         <v>5012727911793</v>
       </c>
-      <c r="C132">
-        <v>13</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -1861,9 +1465,6 @@
       <c r="B133" t="str">
         <v>4897078880025</v>
       </c>
-      <c r="C133">
-        <v>13</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -1872,9 +1473,6 @@
       <c r="B134">
         <v>4895103601355</v>
       </c>
-      <c r="C134">
-        <v>13</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -1883,9 +1481,6 @@
       <c r="B135" t="str">
         <v>010489510360135</v>
       </c>
-      <c r="C135">
-        <v>15</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -1894,9 +1489,6 @@
       <c r="B136">
         <v>4895103601256</v>
       </c>
-      <c r="C136">
-        <v>13</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -1905,9 +1497,6 @@
       <c r="B137" t="str">
         <v>010506033726079</v>
       </c>
-      <c r="C137">
-        <v>15</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -1916,9 +1505,6 @@
       <c r="B138">
         <v>5060337260794</v>
       </c>
-      <c r="C138">
-        <v>13</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
@@ -1927,9 +1513,6 @@
       <c r="B139" t="str">
         <v>4891609560066</v>
       </c>
-      <c r="C139">
-        <v>13</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
@@ -1938,9 +1521,6 @@
       <c r="B140" t="str">
         <v>955053980000000</v>
       </c>
-      <c r="C140">
-        <v>15</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
@@ -1949,9 +1529,6 @@
       <c r="B141">
         <v>8436035566624</v>
       </c>
-      <c r="C141">
-        <v>13</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
@@ -1960,9 +1537,6 @@
       <c r="B142" t="str">
         <v>4719853700321</v>
       </c>
-      <c r="C142">
-        <v>13</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
@@ -1971,9 +1545,6 @@
       <c r="B143">
         <v>8002660001399</v>
       </c>
-      <c r="C143">
-        <v>13</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
@@ -1982,9 +1553,6 @@
       <c r="B144" t="str">
         <v>5903856931656</v>
       </c>
-      <c r="C144">
-        <v>13</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
@@ -1993,9 +1561,6 @@
       <c r="B145">
         <v>3800714000597</v>
       </c>
-      <c r="C145">
-        <v>13</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
@@ -2004,9 +1569,6 @@
       <c r="B146" t="str">
         <v>010405268205580</v>
       </c>
-      <c r="C146">
-        <v>15</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
@@ -2015,9 +1577,6 @@
       <c r="B147" t="str">
         <v>101048970387900</v>
       </c>
-      <c r="C147">
-        <v>15</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
@@ -2026,9 +1585,6 @@
       <c r="B148" t="str">
         <v>6091403221653</v>
       </c>
-      <c r="C148">
-        <v>13</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -2037,9 +1593,6 @@
       <c r="B149" t="str">
         <v>6091403218424</v>
       </c>
-      <c r="C149">
-        <v>13</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
@@ -2048,9 +1601,6 @@
       <c r="B150">
         <v>9316795006617</v>
       </c>
-      <c r="C150">
-        <v>13</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
@@ -2059,9 +1609,6 @@
       <c r="B151">
         <v>6091403218042</v>
       </c>
-      <c r="C151">
-        <v>13</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
@@ -2070,9 +1617,6 @@
       <c r="B152" t="str">
         <v>4897042583716</v>
       </c>
-      <c r="C152">
-        <v>13</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
@@ -2081,9 +1625,6 @@
       <c r="B153" t="str">
         <v>010489704258371</v>
       </c>
-      <c r="C153">
-        <v>15</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
@@ -2092,9 +1633,6 @@
       <c r="B154" t="str">
         <v>010489326835315</v>
       </c>
-      <c r="C154">
-        <v>15</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
@@ -2103,9 +1641,6 @@
       <c r="B155" t="str">
         <v>010501412417429</v>
       </c>
-      <c r="C155">
-        <v>15</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
@@ -2114,9 +1649,6 @@
       <c r="B156" t="str">
         <v>7613036951586</v>
       </c>
-      <c r="C156">
-        <v>13</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
@@ -2125,9 +1657,6 @@
       <c r="B157">
         <v>4893629900105</v>
       </c>
-      <c r="C157">
-        <v>13</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
@@ -2136,9 +1665,6 @@
       <c r="B158">
         <v>5413760229225</v>
       </c>
-      <c r="C158">
-        <v>13</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
@@ -2147,9 +1673,6 @@
       <c r="B159">
         <v>4899338800422</v>
       </c>
-      <c r="C159">
-        <v>13</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
@@ -2158,9 +1681,6 @@
       <c r="B160" t="str">
         <v>4891663000065</v>
       </c>
-      <c r="C160">
-        <v>13</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
@@ -2169,9 +1689,6 @@
       <c r="B161" t="str">
         <v>0801500110721</v>
       </c>
-      <c r="C161">
-        <v>13</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
@@ -2180,9 +1697,6 @@
       <c r="B162" t="str">
         <v>011080150011072</v>
       </c>
-      <c r="C162">
-        <v>15</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
@@ -2191,9 +1705,6 @@
       <c r="B163">
         <v>4715718227330</v>
       </c>
-      <c r="C163">
-        <v>13</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
@@ -2202,9 +1713,6 @@
       <c r="B164">
         <v>4715718227033</v>
       </c>
-      <c r="C164">
-        <v>13</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
@@ -2213,9 +1721,6 @@
       <c r="B165" t="str">
         <v>3582910080077</v>
       </c>
-      <c r="C165">
-        <v>13</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
@@ -2224,9 +1729,6 @@
       <c r="B166">
         <v>5000456014069</v>
       </c>
-      <c r="C166">
-        <v>13</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
@@ -2235,9 +1737,6 @@
       <c r="B167">
         <v>3582910082699</v>
       </c>
-      <c r="C167">
-        <v>13</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
@@ -2246,9 +1745,6 @@
       <c r="B168">
         <v>4895158502898</v>
       </c>
-      <c r="C168">
-        <v>13</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
@@ -2257,9 +1753,6 @@
       <c r="B169" t="str">
         <v>010489377600662</v>
       </c>
-      <c r="C169">
-        <v>15</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
@@ -2268,9 +1761,6 @@
       <c r="B170">
         <v>4893776006620</v>
       </c>
-      <c r="C170">
-        <v>13</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
@@ -2279,9 +1769,6 @@
       <c r="B171">
         <v>4987084302663</v>
       </c>
-      <c r="C171">
-        <v>13</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
@@ -2290,9 +1777,6 @@
       <c r="B172">
         <v>4260016650705</v>
       </c>
-      <c r="C172">
-        <v>13</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
@@ -2301,9 +1785,6 @@
       <c r="B173" t="str">
         <v>010426001665070</v>
       </c>
-      <c r="C173">
-        <v>15</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
@@ -2312,9 +1793,6 @@
       <c r="B174">
         <v>4897002622257</v>
       </c>
-      <c r="C174">
-        <v>13</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
@@ -2323,9 +1801,6 @@
       <c r="B175" t="str">
         <v>4260016653676</v>
       </c>
-      <c r="C175">
-        <v>13</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
@@ -2334,9 +1809,6 @@
       <c r="B176" t="str">
         <v>010426001665367</v>
       </c>
-      <c r="C176">
-        <v>15</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
@@ -2345,9 +1817,6 @@
       <c r="B177">
         <v>5702191023268</v>
       </c>
-      <c r="C177">
-        <v>13</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
@@ -2356,9 +1825,6 @@
       <c r="B178">
         <v>3700567700012</v>
       </c>
-      <c r="C178">
-        <v>13</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
@@ -2367,9 +1833,6 @@
       <c r="B179" t="str">
         <v>010030409302401</v>
       </c>
-      <c r="C179">
-        <v>15</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
@@ -2378,9 +1841,6 @@
       <c r="B180">
         <v>100304093024012</v>
       </c>
-      <c r="C180">
-        <v>15</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
@@ -2389,9 +1849,6 @@
       <c r="B181">
         <v>7612098000362</v>
       </c>
-      <c r="C181">
-        <v>13</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
@@ -2400,9 +1857,6 @@
       <c r="B182">
         <v>5997001380932</v>
       </c>
-      <c r="C182">
-        <v>13</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
@@ -2411,9 +1865,6 @@
       <c r="B183">
         <v>4897056490260</v>
       </c>
-      <c r="C183">
-        <v>13</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
@@ -2422,9 +1873,6 @@
       <c r="B184" t="str">
         <v>4893776001939</v>
       </c>
-      <c r="C184">
-        <v>13</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
@@ -2433,9 +1881,6 @@
       <c r="B185" t="str">
         <v>010489704258025</v>
       </c>
-      <c r="C185">
-        <v>15</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
@@ -2444,9 +1889,6 @@
       <c r="B186" t="str">
         <v>010426001665685</v>
       </c>
-      <c r="C186">
-        <v>15</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
@@ -2455,9 +1897,6 @@
       <c r="B187">
         <v>4260016656851</v>
       </c>
-      <c r="C187">
-        <v>13</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
@@ -2466,9 +1905,6 @@
       <c r="B188">
         <v>4052682064906</v>
       </c>
-      <c r="C188">
-        <v>13</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
@@ -2477,9 +1913,6 @@
       <c r="B189" t="str">
         <v>010489704258301</v>
       </c>
-      <c r="C189">
-        <v>15</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
@@ -2488,9 +1921,6 @@
       <c r="B190">
         <v>4897042583013</v>
       </c>
-      <c r="C190">
-        <v>13</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
@@ -2499,9 +1929,6 @@
       <c r="B191">
         <v>4897010454758</v>
       </c>
-      <c r="C191">
-        <v>13</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
@@ -2510,9 +1937,6 @@
       <c r="B192" t="str">
         <v>011890112704053</v>
       </c>
-      <c r="C192">
-        <v>15</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
@@ -2521,9 +1945,6 @@
       <c r="B193" t="str">
         <v>010489326836746</v>
       </c>
-      <c r="C193">
-        <v>15</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
@@ -2532,9 +1953,6 @@
       <c r="B194" t="str">
         <v>17213V01R01</v>
       </c>
-      <c r="C194">
-        <v>11</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
@@ -2543,9 +1961,6 @@
       <c r="B195">
         <v>9340404001229</v>
       </c>
-      <c r="C195">
-        <v>13</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
@@ -2554,9 +1969,6 @@
       <c r="B196" t="str">
         <v>4891663133084</v>
       </c>
-      <c r="C196">
-        <v>13</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
@@ -2565,9 +1977,6 @@
       <c r="B197" t="str">
         <v>3582910013624</v>
       </c>
-      <c r="C197">
-        <v>13</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
@@ -2576,9 +1985,6 @@
       <c r="B198" t="str">
         <v>010501412417026</v>
       </c>
-      <c r="C198">
-        <v>15</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
@@ -2587,9 +1993,6 @@
       <c r="B199">
         <v>5014124170261</v>
       </c>
-      <c r="C199">
-        <v>13</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
@@ -2598,9 +2001,6 @@
       <c r="B200">
         <v>6927924801107</v>
       </c>
-      <c r="C200">
-        <v>13</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
@@ -2609,9 +2009,6 @@
       <c r="B201" t="str">
         <v>010121000117085</v>
       </c>
-      <c r="C201">
-        <v>15</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
@@ -2620,9 +2017,6 @@
       <c r="B202" t="str">
         <v>9313109827159</v>
       </c>
-      <c r="C202">
-        <v>13</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
@@ -2631,9 +2025,6 @@
       <c r="B203">
         <v>9313109827159</v>
       </c>
-      <c r="C203">
-        <v>13</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
@@ -2642,9 +2033,6 @@
       <c r="B204" t="str">
         <v>156900000000000</v>
       </c>
-      <c r="C204">
-        <v>15</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
@@ -2653,9 +2041,6 @@
       <c r="B205" t="str">
         <v>666320000000000</v>
       </c>
-      <c r="C205">
-        <v>15</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
@@ -2664,9 +2049,6 @@
       <c r="B206" t="str">
         <v>5027519001804</v>
       </c>
-      <c r="C206">
-        <v>13</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
@@ -2675,9 +2057,6 @@
       <c r="B207" t="str">
         <v>0801500110806</v>
       </c>
-      <c r="C207">
-        <v>13</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
@@ -2686,9 +2065,6 @@
       <c r="B208" t="str">
         <v>010121000117085</v>
       </c>
-      <c r="C208">
-        <v>15</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
@@ -2697,9 +2073,6 @@
       <c r="B209" t="str">
         <v>5036376224639</v>
       </c>
-      <c r="C209">
-        <v>13</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
@@ -2708,9 +2081,6 @@
       <c r="B210" t="str">
         <v>010489501181637</v>
       </c>
-      <c r="C210">
-        <v>15</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
@@ -2719,9 +2089,6 @@
       <c r="B211" t="str">
         <v>4260095681843</v>
       </c>
-      <c r="C211">
-        <v>13</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
@@ -2730,9 +2097,6 @@
       <c r="B212" t="str">
         <v>5060499390506</v>
       </c>
-      <c r="C212">
-        <v>13</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
@@ -2741,9 +2105,6 @@
       <c r="B213">
         <v>4893629900075</v>
       </c>
-      <c r="C213">
-        <v>13</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
@@ -2752,9 +2113,6 @@
       <c r="B214">
         <v>4893629900082</v>
       </c>
-      <c r="C214">
-        <v>13</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
@@ -2763,9 +2121,6 @@
       <c r="B215">
         <v>4893629900068</v>
       </c>
-      <c r="C215">
-        <v>13</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
@@ -2774,9 +2129,6 @@
       <c r="B216">
         <v>8901175029570</v>
       </c>
-      <c r="C216">
-        <v>13</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
@@ -2785,9 +2137,6 @@
       <c r="B217" t="str">
         <v>011890117502957</v>
       </c>
-      <c r="C217">
-        <v>15</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
@@ -2796,9 +2145,6 @@
       <c r="B218">
         <v>3582910052647</v>
       </c>
-      <c r="C218">
-        <v>13</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
@@ -2807,9 +2153,6 @@
       <c r="B219">
         <v>3582910052654</v>
       </c>
-      <c r="C219">
-        <v>13</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
@@ -2818,9 +2161,6 @@
       <c r="B220" t="str">
         <v>0300870402035</v>
       </c>
-      <c r="C220">
-        <v>13</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
@@ -2829,9 +2169,6 @@
       <c r="B221">
         <v>3665585003012</v>
       </c>
-      <c r="C221">
-        <v>13</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
@@ -2840,9 +2177,6 @@
       <c r="B222" t="str">
         <v>750943860000000</v>
       </c>
-      <c r="C222">
-        <v>15</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
@@ -2851,9 +2185,6 @@
       <c r="B223" t="str">
         <v>010890409382110</v>
       </c>
-      <c r="C223">
-        <v>15</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
@@ -2862,9 +2193,6 @@
       <c r="B224" t="str">
         <v>010403053991231</v>
       </c>
-      <c r="C224">
-        <v>15</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
@@ -2873,9 +2201,6 @@
       <c r="B225" t="str">
         <v>4030539912310</v>
       </c>
-      <c r="C225">
-        <v>13</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
@@ -2884,9 +2209,6 @@
       <c r="B226" t="str">
         <v>010030338070948</v>
       </c>
-      <c r="C226">
-        <v>15</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
@@ -2895,9 +2217,6 @@
       <c r="B227" t="str">
         <v>010030338070548</v>
       </c>
-      <c r="C227">
-        <v>15</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
@@ -2906,9 +2225,6 @@
       <c r="B228">
         <v>5291043001160</v>
       </c>
-      <c r="C228">
-        <v>13</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
@@ -2917,9 +2233,6 @@
       <c r="B229">
         <v>5291043000354</v>
       </c>
-      <c r="C229">
-        <v>13</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
@@ -2928,9 +2241,6 @@
       <c r="B230">
         <v>5291043000385</v>
       </c>
-      <c r="C230">
-        <v>13</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
@@ -2939,9 +2249,6 @@
       <c r="B231">
         <v>4897046660185</v>
       </c>
-      <c r="C231">
-        <v>13</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
@@ -2950,9 +2257,6 @@
       <c r="B232">
         <v>4897000501202</v>
       </c>
-      <c r="C232">
-        <v>13</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
@@ -2961,9 +2265,6 @@
       <c r="B233">
         <v>9331134000118</v>
       </c>
-      <c r="C233">
-        <v>13</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
@@ -2972,9 +2273,6 @@
       <c r="B234">
         <v>4893629900198</v>
       </c>
-      <c r="C234">
-        <v>13</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
@@ -2983,9 +2281,6 @@
       <c r="B235" t="str">
         <v>011501272791359</v>
       </c>
-      <c r="C235">
-        <v>15</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
@@ -2994,9 +2289,6 @@
       <c r="B236" t="str">
         <v>010404772512352</v>
       </c>
-      <c r="C236">
-        <v>15</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
@@ -3005,9 +2297,6 @@
       <c r="B237">
         <v>3664798045482</v>
       </c>
-      <c r="C237">
-        <v>13</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
@@ -3016,9 +2305,6 @@
       <c r="B238" t="str">
         <v>010366479804548</v>
       </c>
-      <c r="C238">
-        <v>15</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
@@ -3027,9 +2313,6 @@
       <c r="B239" t="str">
         <v>010489377600635</v>
       </c>
-      <c r="C239">
-        <v>15</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
@@ -3038,9 +2321,6 @@
       <c r="B240" t="str">
         <v>4893776006354</v>
       </c>
-      <c r="C240">
-        <v>13</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
@@ -3049,9 +2329,6 @@
       <c r="B241" t="str">
         <v>9300670501243</v>
       </c>
-      <c r="C241">
-        <v>13</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
@@ -3060,9 +2337,6 @@
       <c r="B242">
         <v>8054083002279</v>
       </c>
-      <c r="C242">
-        <v>13</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
@@ -3071,9 +2345,6 @@
       <c r="B243">
         <v>4030539071475</v>
       </c>
-      <c r="C243">
-        <v>13</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
@@ -3082,9 +2353,6 @@
       <c r="B244" t="str">
         <v>010403053905797</v>
       </c>
-      <c r="C244">
-        <v>15</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
@@ -3093,9 +2361,6 @@
       <c r="B245" t="str">
         <v>010405268205372</v>
       </c>
-      <c r="C245">
-        <v>15</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
@@ -3104,9 +2369,6 @@
       <c r="B246">
         <v>9556492000130</v>
       </c>
-      <c r="C246">
-        <v>13</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
@@ -3115,9 +2377,6 @@
       <c r="B247" t="str">
         <v>013070441101761</v>
       </c>
-      <c r="C247">
-        <v>15</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
@@ -3126,9 +2385,6 @@
       <c r="B248" t="str">
         <v>010489510360390</v>
       </c>
-      <c r="C248">
-        <v>15</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
@@ -3137,9 +2393,6 @@
       <c r="B249">
         <v>4895103603908</v>
       </c>
-      <c r="C249">
-        <v>13</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
@@ -3148,9 +2401,6 @@
       <c r="B250" t="str">
         <v>010415001676515</v>
       </c>
-      <c r="C250">
-        <v>15</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
@@ -3159,9 +2409,6 @@
       <c r="B251" t="str">
         <v>0801500110615</v>
       </c>
-      <c r="C251">
-        <v>13</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
@@ -3170,9 +2417,6 @@
       <c r="B252">
         <v>110801500110612</v>
       </c>
-      <c r="C252">
-        <v>15</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
@@ -3181,9 +2425,6 @@
       <c r="B253" t="str">
         <v>010339113587001</v>
       </c>
-      <c r="C253">
-        <v>15</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
@@ -3192,9 +2433,6 @@
       <c r="B254">
         <v>4893645241459</v>
       </c>
-      <c r="C254">
-        <v>13</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
@@ -3203,9 +2441,6 @@
       <c r="B255">
         <v>6923878313697</v>
       </c>
-      <c r="C255">
-        <v>13</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
@@ -3214,9 +2449,6 @@
       <c r="B256">
         <v>4893629900839</v>
       </c>
-      <c r="C256">
-        <v>13</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
@@ -3225,9 +2457,6 @@
       <c r="B257">
         <v>4893629900822</v>
       </c>
-      <c r="C257">
-        <v>13</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
@@ -3236,9 +2465,6 @@
       <c r="B258" t="str">
         <v>010426001665081</v>
       </c>
-      <c r="C258">
-        <v>15</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
@@ -3247,9 +2473,6 @@
       <c r="B259" t="str">
         <v>4260016650811</v>
       </c>
-      <c r="C259">
-        <v>13</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
@@ -3258,9 +2481,6 @@
       <c r="B260">
         <v>4823002246827</v>
       </c>
-      <c r="C260">
-        <v>13</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
@@ -3269,9 +2489,6 @@
       <c r="B261">
         <v>5713844000000</v>
       </c>
-      <c r="C261">
-        <v>13</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
@@ -3280,9 +2497,6 @@
       <c r="B262">
         <v>4895103601003</v>
       </c>
-      <c r="C262">
-        <v>13</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
@@ -3291,9 +2505,6 @@
       <c r="B263" t="str">
         <v>010489510360100</v>
       </c>
-      <c r="C263">
-        <v>15</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
@@ -3302,9 +2513,6 @@
       <c r="B264">
         <v>4711914315215</v>
       </c>
-      <c r="C264">
-        <v>13</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
@@ -3313,9 +2521,6 @@
       <c r="B265">
         <v>3582910055112</v>
       </c>
-      <c r="C265">
-        <v>13</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
@@ -3324,9 +2529,6 @@
       <c r="B266">
         <v>3582910005810</v>
       </c>
-      <c r="C266">
-        <v>13</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
@@ -3335,9 +2537,6 @@
       <c r="B267" t="str">
         <v>3700567700029</v>
       </c>
-      <c r="C267">
-        <v>13</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
@@ -3346,9 +2545,6 @@
       <c r="B268">
         <v>8435373701452</v>
       </c>
-      <c r="C268">
-        <v>13</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
@@ -3357,9 +2553,6 @@
       <c r="B269" t="str">
         <v>011030409114405</v>
       </c>
-      <c r="C269">
-        <v>15</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
@@ -3368,9 +2561,6 @@
       <c r="B270">
         <v>4891034025703</v>
       </c>
-      <c r="C270">
-        <v>13</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
@@ -3379,9 +2569,6 @@
       <c r="B271">
         <v>4891034025710</v>
       </c>
-      <c r="C271">
-        <v>13</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
@@ -3390,9 +2577,6 @@
       <c r="B272" t="str">
         <v>4895103600723</v>
       </c>
-      <c r="C272">
-        <v>13</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
@@ -3401,9 +2585,6 @@
       <c r="B273" t="str">
         <v>010880646601621</v>
       </c>
-      <c r="C273">
-        <v>15</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
@@ -3412,9 +2593,6 @@
       <c r="B274" t="str">
         <v>010489506611886</v>
       </c>
-      <c r="C274">
-        <v>15</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
@@ -3423,9 +2601,6 @@
       <c r="B275" t="str">
         <v>020404772510132</v>
       </c>
-      <c r="C275">
-        <v>15</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
@@ -3434,9 +2609,6 @@
       <c r="B276" t="str">
         <v>010489704258412</v>
       </c>
-      <c r="C276">
-        <v>15</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
@@ -3445,9 +2617,6 @@
       <c r="B277" t="str">
         <v>244100000000000</v>
       </c>
-      <c r="C277">
-        <v>15</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
@@ -3456,9 +2625,6 @@
       <c r="B278" t="str">
         <v>010121000113568</v>
       </c>
-      <c r="C278">
-        <v>15</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
@@ -3467,9 +2633,6 @@
       <c r="B279" t="str">
         <v>1210001135680</v>
       </c>
-      <c r="C279">
-        <v>13</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
@@ -3478,9 +2641,6 @@
       <c r="B280" t="str">
         <v>172130101000000</v>
       </c>
-      <c r="C280">
-        <v>15</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
@@ -3490,9 +2650,17 @@
         <v>4550583435059</v>
       </c>
     </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>MOME02</v>
+      </c>
+      <c r="B450" t="str">
+        <v>9314839004889</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C449"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B450"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2650,10 +2650,18 @@
         <v>4550583435059</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>K Y 01</v>
+      </c>
+      <c r="B282" t="str">
+        <v>4897025471177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B281"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B282"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B283"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2658,10 +2658,18 @@
         <v>4897025471177</v>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>PROM09</v>
+      </c>
+      <c r="B283" t="str">
+        <v>010489501181551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B282"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B283"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2666,10 +2666,18 @@
         <v>010489501181551</v>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>DIPH14</v>
+      </c>
+      <c r="B284" t="str">
+        <v>4893268338420</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B283"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B284"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2674,10 +2674,18 @@
         <v>4893268338420</v>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>SALB10</v>
+      </c>
+      <c r="B285" t="str">
+        <v>010489377600663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B284"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B285"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2682,10 +2682,18 @@
         <v>010489377600663</v>
       </c>
     </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>COCI01</v>
+      </c>
+      <c r="B286" t="str">
+        <v>010489510360928</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B285"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B286"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2690,10 +2690,18 @@
         <v>010489510360928</v>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>CEFU02</v>
+      </c>
+      <c r="B287" t="str">
+        <v>6935471757150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B286"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B287"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B287"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2698,10 +2698,18 @@
         <v>6935471757150</v>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>LEVE04</v>
+      </c>
+      <c r="B288" t="str">
+        <v>010489377600214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B287"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B288"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2706,10 +2706,18 @@
         <v>010489377600214</v>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>LEVE04</v>
+      </c>
+      <c r="B289" t="str">
+        <v>4893776002141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B288"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B289"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2714,10 +2714,18 @@
         <v>4893776002141</v>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>MAGN32</v>
+      </c>
+      <c r="B290" t="str">
+        <v>5026468179138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B289"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B290"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B290"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2722,10 +2722,18 @@
         <v>5026468179138</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>KETO12</v>
+      </c>
+      <c r="B291" t="str">
+        <v>5021730033781</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B290"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B291"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B292"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2730,10 +2730,18 @@
         <v>5021730033781</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>ROCU01</v>
+      </c>
+      <c r="B292" t="str">
+        <v>092049000000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B291"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B292"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B292"/>
+  <dimension ref="A1:B293"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2738,10 +2738,18 @@
         <v>092049000000000</v>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>ALBU18</v>
+      </c>
+      <c r="B293" t="str">
+        <v>010934740800237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B292"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B293"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B293"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2746,10 +2746,18 @@
         <v>010934740800237</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>HEPA47</v>
+      </c>
+      <c r="B294" t="str">
+        <v>010403053922251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B293"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B294"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B294"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2754,10 +2754,18 @@
         <v>010403053922251</v>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>TROP04</v>
+      </c>
+      <c r="B295" t="str">
+        <v>4893629900709</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B294"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B295"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2762,10 +2762,18 @@
         <v>4893629900709</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>AMET02</v>
+      </c>
+      <c r="B296" t="str">
+        <v>206400000000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B295"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B296"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B296"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2770,10 +2770,18 @@
         <v>206400000000000</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>DEXA30</v>
+      </c>
+      <c r="B297" t="str">
+        <v>0801500110479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B296"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B297"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTC\TOPUP\location_checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CEA2D6-72F5-4635-8B6F-4134F0BDA704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6298F0D-609B-4D97-BF6D-889441E05272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="386">
   <si>
     <t>Item Code</t>
   </si>
@@ -1088,9 +1088,6 @@
   </si>
   <si>
     <t>010489704258412</t>
-  </si>
-  <si>
-    <t>244100000000000</t>
   </si>
   <si>
     <t>010121000113568</t>
@@ -1539,15 +1536,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B297"/>
+  <dimension ref="A1:B292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD202"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1563,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1571,7 +1568,7 @@
         <v>4895003400249</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1587,7 +1584,7 @@
         <v>4895003400164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1603,7 +1600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1611,7 +1608,7 @@
         <v>9313109800152</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1619,7 +1616,7 @@
         <v>9313109800053</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1635,7 +1632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1643,7 +1640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1651,7 +1648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1667,7 +1664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1675,7 +1672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1683,7 +1680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1691,7 +1688,7 @@
         <v>4260095683069</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1699,7 +1696,7 @@
         <v>5010724533819</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1707,7 +1704,7 @@
         <v>4895103611064</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1715,7 +1712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1723,7 +1720,7 @@
         <v>5024071230130</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1731,7 +1728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1739,7 +1736,7 @@
         <v>4897042583259</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1747,7 +1744,7 @@
         <v>8993430102821</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1755,7 +1752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1763,7 +1760,7 @@
         <v>5014124170056</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>4897104270189</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1779,7 +1776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1787,7 +1784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1795,7 +1792,7 @@
         <v>5026468000296</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1803,7 +1800,7 @@
         <v>6091403218752</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1811,7 +1808,7 @@
         <v>6091403218028</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1819,7 +1816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1827,7 +1824,7 @@
         <v>4892018047254</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1835,7 +1832,7 @@
         <v>4891663004940</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1843,7 +1840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1851,7 +1848,7 @@
         <v>5014124170100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1859,7 +1856,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1867,7 +1864,7 @@
         <v>4893776001359</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -1875,7 +1872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -1883,7 +1880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -1891,7 +1888,7 @@
         <v>8906080480034</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -1899,7 +1896,7 @@
         <v>8906080480034</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1907,7 +1904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -1915,7 +1912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -1923,7 +1920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -1931,7 +1928,7 @@
         <v>8854927005011</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -1939,7 +1936,7 @@
         <v>4895126673520</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -1947,7 +1944,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -1955,7 +1952,7 @@
         <v>9350279000180</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -1963,7 +1960,7 @@
         <v>4894281008208</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -1971,7 +1968,7 @@
         <v>8936106321065</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -1979,7 +1976,7 @@
         <v>5000223446741</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -1987,7 +1984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -1995,7 +1992,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -2003,7 +2000,7 @@
         <v>9556258002835</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -2011,7 +2008,7 @@
         <v>4895103607241</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -2019,7 +2016,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -2027,7 +2024,7 @@
         <v>8902346024363</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -2035,7 +2032,7 @@
         <v>4891034025680</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2043,7 +2040,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -2059,7 +2056,7 @@
         <v>8885018070069</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -2067,7 +2064,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>8885018070076</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -2083,7 +2080,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -2091,7 +2088,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -2099,7 +2096,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -2115,7 +2112,7 @@
         <v>57606407023</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -2123,7 +2120,7 @@
         <v>9556492002707</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -2131,7 +2128,7 @@
         <v>6432100052995</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -2139,7 +2136,7 @@
         <v>4895126695102</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -2147,7 +2144,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -2155,7 +2152,7 @@
         <v>4030539913393</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -2163,7 +2160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -2171,7 +2168,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -2179,7 +2176,7 @@
         <v>4895158500290</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -2187,7 +2184,7 @@
         <v>4895158500313</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -2195,7 +2192,7 @@
         <v>9316626102105</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -2203,7 +2200,7 @@
         <v>9555701010083</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -2211,7 +2208,7 @@
         <v>114987051142039</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -2219,7 +2216,7 @@
         <v>4893268338451</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -2227,7 +2224,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>105</v>
       </c>
@@ -2235,7 +2232,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -2243,7 +2240,7 @@
         <v>4895103611224</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -2251,7 +2248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -2259,7 +2256,7 @@
         <v>3660053346042</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -2267,7 +2264,7 @@
         <v>4891663004926</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -2275,7 +2272,7 @@
         <v>5603690001941</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -2283,7 +2280,7 @@
         <v>4893629900037</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>112</v>
       </c>
@@ -2291,7 +2288,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>114</v>
       </c>
@@ -2299,7 +2296,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -2307,7 +2304,7 @@
         <v>4895103606114</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -2315,7 +2312,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -2323,7 +2320,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>120</v>
       </c>
@@ -2331,7 +2328,7 @@
         <v>9313109836052</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>121</v>
       </c>
@@ -2339,7 +2336,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -2347,7 +2344,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>124</v>
       </c>
@@ -2355,7 +2352,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>124</v>
       </c>
@@ -2363,7 +2360,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>127</v>
       </c>
@@ -2371,7 +2368,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>129</v>
       </c>
@@ -2379,7 +2376,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>131</v>
       </c>
@@ -2387,7 +2384,7 @@
         <v>7640114723971</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>132</v>
       </c>
@@ -2395,7 +2392,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>134</v>
       </c>
@@ -2403,7 +2400,7 @@
         <v>4260016653621</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>134</v>
       </c>
@@ -2411,7 +2408,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>136</v>
       </c>
@@ -2419,7 +2416,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>138</v>
       </c>
@@ -2427,7 +2424,7 @@
         <v>4052682034268</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>139</v>
       </c>
@@ -2435,7 +2432,7 @@
         <v>4030539035903</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>139</v>
       </c>
@@ -2443,7 +2440,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>141</v>
       </c>
@@ -2451,7 +2448,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>143</v>
       </c>
@@ -2459,7 +2456,7 @@
         <v>5012617013613</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>144</v>
       </c>
@@ -2467,7 +2464,7 @@
         <v>4029125011537</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>145</v>
       </c>
@@ -2475,7 +2472,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>145</v>
       </c>
@@ -2483,7 +2480,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>148</v>
       </c>
@@ -2491,7 +2488,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>150</v>
       </c>
@@ -2499,7 +2496,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>150</v>
       </c>
@@ -2507,7 +2504,7 @@
         <v>5690528185034</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>152</v>
       </c>
@@ -2515,7 +2512,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -2523,7 +2520,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>155</v>
       </c>
@@ -2531,7 +2528,7 @@
         <v>5099602317017</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>155</v>
       </c>
@@ -2539,7 +2536,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>157</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>5702191006704</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>158</v>
       </c>
@@ -2555,7 +2552,7 @@
         <v>4891034043271</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>159</v>
       </c>
@@ -2563,7 +2560,7 @@
         <v>9313109808189</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -2571,7 +2568,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>160</v>
       </c>
@@ -2579,7 +2576,7 @@
         <v>4030539222525</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>162</v>
       </c>
@@ -2587,7 +2584,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>164</v>
       </c>
@@ -2595,7 +2592,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>166</v>
       </c>
@@ -2603,7 +2600,7 @@
         <v>4895103601355</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -2611,7 +2608,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>168</v>
       </c>
@@ -2619,7 +2616,7 @@
         <v>4895103601256</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>169</v>
       </c>
@@ -2627,7 +2624,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>169</v>
       </c>
@@ -2635,7 +2632,7 @@
         <v>5060337260794</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>171</v>
       </c>
@@ -2643,7 +2640,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -2651,7 +2648,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>175</v>
       </c>
@@ -2659,7 +2656,7 @@
         <v>8436035566624</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>176</v>
       </c>
@@ -2667,7 +2664,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>178</v>
       </c>
@@ -2675,7 +2672,7 @@
         <v>8002660001399</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>179</v>
       </c>
@@ -2683,7 +2680,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>181</v>
       </c>
@@ -2691,7 +2688,7 @@
         <v>3800714000597</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>182</v>
       </c>
@@ -2699,7 +2696,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -2707,7 +2704,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>186</v>
       </c>
@@ -2715,7 +2712,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>188</v>
       </c>
@@ -2723,7 +2720,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>190</v>
       </c>
@@ -2731,7 +2728,7 @@
         <v>9316795006617</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>191</v>
       </c>
@@ -2739,7 +2736,7 @@
         <v>6091403218042</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>192</v>
       </c>
@@ -2747,7 +2744,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>192</v>
       </c>
@@ -2755,7 +2752,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>195</v>
       </c>
@@ -2763,7 +2760,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>197</v>
       </c>
@@ -2771,7 +2768,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>199</v>
       </c>
@@ -2779,7 +2776,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>201</v>
       </c>
@@ -2787,7 +2784,7 @@
         <v>4893629900105</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>202</v>
       </c>
@@ -2795,7 +2792,7 @@
         <v>5413760229225</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>203</v>
       </c>
@@ -2803,7 +2800,7 @@
         <v>4899338800422</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>204</v>
       </c>
@@ -2811,7 +2808,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>206</v>
       </c>
@@ -2819,7 +2816,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>206</v>
       </c>
@@ -2827,7 +2824,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>209</v>
       </c>
@@ -2835,7 +2832,7 @@
         <v>4715718227330</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>209</v>
       </c>
@@ -2843,7 +2840,7 @@
         <v>4715718227033</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>210</v>
       </c>
@@ -2851,7 +2848,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>212</v>
       </c>
@@ -2859,7 +2856,7 @@
         <v>5000456014069</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>213</v>
       </c>
@@ -2867,7 +2864,7 @@
         <v>3582910082699</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>214</v>
       </c>
@@ -2875,7 +2872,7 @@
         <v>4895158502898</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>215</v>
       </c>
@@ -2883,7 +2880,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>215</v>
       </c>
@@ -2891,7 +2888,7 @@
         <v>4893776006620</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>217</v>
       </c>
@@ -2899,7 +2896,7 @@
         <v>4987084302663</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>218</v>
       </c>
@@ -2907,7 +2904,7 @@
         <v>4260016650705</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>218</v>
       </c>
@@ -2915,7 +2912,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>220</v>
       </c>
@@ -2923,7 +2920,7 @@
         <v>4897002622257</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>221</v>
       </c>
@@ -2931,7 +2928,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>221</v>
       </c>
@@ -2939,7 +2936,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>224</v>
       </c>
@@ -2947,7 +2944,7 @@
         <v>5702191023268</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>225</v>
       </c>
@@ -2955,7 +2952,7 @@
         <v>3700567700012</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>226</v>
       </c>
@@ -2963,7 +2960,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>226</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>100304093024012</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>228</v>
       </c>
@@ -2979,7 +2976,7 @@
         <v>7612098000362</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>229</v>
       </c>
@@ -2987,7 +2984,7 @@
         <v>5997001380932</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>230</v>
       </c>
@@ -2995,7 +2992,7 @@
         <v>4897056490260</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>231</v>
       </c>
@@ -3003,7 +3000,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>233</v>
       </c>
@@ -3011,7 +3008,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>235</v>
       </c>
@@ -3019,7 +3016,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>235</v>
       </c>
@@ -3027,7 +3024,7 @@
         <v>4260016656851</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>237</v>
       </c>
@@ -3035,7 +3032,7 @@
         <v>4052682064906</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>238</v>
       </c>
@@ -3043,7 +3040,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>238</v>
       </c>
@@ -3051,7 +3048,7 @@
         <v>4897042583013</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>240</v>
       </c>
@@ -3059,7 +3056,7 @@
         <v>4897010454758</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>241</v>
       </c>
@@ -3067,7 +3064,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>243</v>
       </c>
@@ -3075,7 +3072,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>245</v>
       </c>
@@ -3083,7 +3080,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>245</v>
       </c>
@@ -3091,7 +3088,7 @@
         <v>9340404001229</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>247</v>
       </c>
@@ -3099,7 +3096,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>249</v>
       </c>
@@ -3107,7 +3104,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>251</v>
       </c>
@@ -3115,7 +3112,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>251</v>
       </c>
@@ -3123,7 +3120,7 @@
         <v>5014124170261</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>253</v>
       </c>
@@ -3131,7 +3128,7 @@
         <v>6927924801107</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>254</v>
       </c>
@@ -3139,7 +3136,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>256</v>
       </c>
@@ -3147,7 +3144,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>258</v>
       </c>
@@ -3155,7 +3152,7 @@
         <v>9313109827159</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>259</v>
       </c>
@@ -3163,7 +3160,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>261</v>
       </c>
@@ -3171,7 +3168,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>263</v>
       </c>
@@ -3179,7 +3176,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>264</v>
       </c>
@@ -3187,7 +3184,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>266</v>
       </c>
@@ -3195,7 +3192,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>268</v>
       </c>
@@ -3203,7 +3200,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>270</v>
       </c>
@@ -3211,7 +3208,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>272</v>
       </c>
@@ -3219,7 +3216,7 @@
         <v>4893629900075</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>273</v>
       </c>
@@ -3227,7 +3224,7 @@
         <v>4893629900082</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>274</v>
       </c>
@@ -3235,7 +3232,7 @@
         <v>4893629900068</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>275</v>
       </c>
@@ -3243,7 +3240,7 @@
         <v>8901175029570</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>275</v>
       </c>
@@ -3251,7 +3248,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>277</v>
       </c>
@@ -3259,7 +3256,7 @@
         <v>3582910052647</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>278</v>
       </c>
@@ -3267,7 +3264,7 @@
         <v>3582910052654</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>279</v>
       </c>
@@ -3275,7 +3272,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>281</v>
       </c>
@@ -3283,7 +3280,7 @@
         <v>3665585003012</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>282</v>
       </c>
@@ -3291,7 +3288,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>282</v>
       </c>
@@ -3299,7 +3296,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>285</v>
       </c>
@@ -3307,7 +3304,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>285</v>
       </c>
@@ -3315,7 +3312,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>288</v>
       </c>
@@ -3323,7 +3320,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>290</v>
       </c>
@@ -3331,7 +3328,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>292</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v>5291043001160</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>293</v>
       </c>
@@ -3347,7 +3344,7 @@
         <v>5291043000354</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>294</v>
       </c>
@@ -3355,7 +3352,7 @@
         <v>5291043000385</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>295</v>
       </c>
@@ -3363,7 +3360,7 @@
         <v>4897046660185</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>296</v>
       </c>
@@ -3371,7 +3368,7 @@
         <v>4897000501202</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>297</v>
       </c>
@@ -3379,7 +3376,7 @@
         <v>9331134000118</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>298</v>
       </c>
@@ -3387,7 +3384,7 @@
         <v>4893629900198</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>299</v>
       </c>
@@ -3395,7 +3392,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>301</v>
       </c>
@@ -3403,7 +3400,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>303</v>
       </c>
@@ -3411,7 +3408,7 @@
         <v>3664798045482</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>303</v>
       </c>
@@ -3419,7 +3416,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>305</v>
       </c>
@@ -3427,7 +3424,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>305</v>
       </c>
@@ -3435,7 +3432,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>308</v>
       </c>
@@ -3443,7 +3440,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>310</v>
       </c>
@@ -3451,7 +3448,7 @@
         <v>8054083002279</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>311</v>
       </c>
@@ -3459,7 +3456,7 @@
         <v>4030539071475</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>311</v>
       </c>
@@ -3467,7 +3464,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>313</v>
       </c>
@@ -3475,7 +3472,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>315</v>
       </c>
@@ -3483,7 +3480,7 @@
         <v>9556492000130</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>316</v>
       </c>
@@ -3491,7 +3488,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>318</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>318</v>
       </c>
@@ -3507,7 +3504,7 @@
         <v>4895103603908</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>320</v>
       </c>
@@ -3515,7 +3512,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>322</v>
       </c>
@@ -3523,7 +3520,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>322</v>
       </c>
@@ -3531,7 +3528,7 @@
         <v>110801500110612</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>324</v>
       </c>
@@ -3539,7 +3536,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>326</v>
       </c>
@@ -3547,7 +3544,7 @@
         <v>4893645241459</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>327</v>
       </c>
@@ -3555,7 +3552,7 @@
         <v>6923878313697</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>328</v>
       </c>
@@ -3563,7 +3560,7 @@
         <v>4893629900839</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>329</v>
       </c>
@@ -3571,7 +3568,7 @@
         <v>4893629900822</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>330</v>
       </c>
@@ -3579,7 +3576,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>330</v>
       </c>
@@ -3587,7 +3584,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>333</v>
       </c>
@@ -3595,7 +3592,7 @@
         <v>4823002246827</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>334</v>
       </c>
@@ -3603,7 +3600,7 @@
         <v>5713844000000</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>335</v>
       </c>
@@ -3611,7 +3608,7 @@
         <v>4895103601003</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>335</v>
       </c>
@@ -3619,7 +3616,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>337</v>
       </c>
@@ -3627,7 +3624,7 @@
         <v>4711914315215</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>338</v>
       </c>
@@ -3635,7 +3632,7 @@
         <v>3582910055112</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>339</v>
       </c>
@@ -3643,7 +3640,7 @@
         <v>3582910005810</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>340</v>
       </c>
@@ -3651,7 +3648,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>342</v>
       </c>
@@ -3659,7 +3656,7 @@
         <v>8435373701452</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>343</v>
       </c>
@@ -3667,7 +3664,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>345</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>4891034025703</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>346</v>
       </c>
@@ -3683,7 +3680,7 @@
         <v>4891034025710</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>347</v>
       </c>
@@ -3691,7 +3688,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>349</v>
       </c>
@@ -3699,7 +3696,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>351</v>
       </c>
@@ -3707,7 +3704,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -3715,7 +3712,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>354</v>
       </c>
@@ -3723,15 +3720,15 @@
         <v>355</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="B273" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>261</v>
       </c>
@@ -3739,168 +3736,156 @@
         <v>357</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B275" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>245</v>
+        <v>359</v>
       </c>
       <c r="B276" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B277" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B278" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>364</v>
+        <v>102</v>
       </c>
       <c r="B279" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="B280" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>308</v>
+        <v>74</v>
       </c>
       <c r="B281" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>74</v>
+        <v>368</v>
       </c>
       <c r="B282" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B283" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>371</v>
       </c>
       <c r="B284" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>371</v>
+        <v>197</v>
       </c>
       <c r="B285" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>197</v>
+        <v>374</v>
       </c>
       <c r="B286" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B287" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B288" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>379</v>
+        <v>160</v>
       </c>
       <c r="B289" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>160</v>
+        <v>381</v>
       </c>
       <c r="B290" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>382</v>
+        <v>16</v>
       </c>
       <c r="B291" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>16</v>
+        <v>384</v>
       </c>
       <c r="B292" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
         <v>385</v>
       </c>
-      <c r="B293" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="16.5" x14ac:dyDescent="0.25"/>
-    <row r="295" spans="1:2" ht="16.5" x14ac:dyDescent="0.25"/>
-    <row r="296" spans="1:2" ht="16.5" x14ac:dyDescent="0.25"/>
-    <row r="297" spans="1:2" ht="16.5" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B11 A12:B12 A13:B201 A202:B293" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B11 A12:B12 A13:B201 A202:B272 A273:B292" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B293"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2746,10 +2746,18 @@
         <v>244100000000000</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>PHEN50</v>
+      </c>
+      <c r="B294" t="str">
+        <v>666320000000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B293"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B294"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B294"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2754,10 +2754,18 @@
         <v>666320000000000</v>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>ISOP13</v>
+      </c>
+      <c r="B295" t="str">
+        <v>010805527790009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B294"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B295"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2762,10 +2762,18 @@
         <v>010805527790009</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>COPH01</v>
+      </c>
+      <c r="B296" t="str">
+        <v>9333279000022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B295"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B296"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B296"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2770,10 +2770,18 @@
         <v>9333279000022</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>CHAR02</v>
+      </c>
+      <c r="B297" t="str">
+        <v>9329829004077</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B296"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B297"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B297"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2778,10 +2778,18 @@
         <v>9329829004077</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>PROP03</v>
+      </c>
+      <c r="B298" t="str">
+        <v>088160010000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B297"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B298"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B299"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2786,10 +2786,18 @@
         <v>088160010000000</v>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>PHYT06</v>
+      </c>
+      <c r="B299" t="str">
+        <v>4260095682116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B298"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B299"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B299"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2794,10 +2794,18 @@
         <v>4260095682116</v>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>HEPA47</v>
+      </c>
+      <c r="B300" t="str">
+        <v>011501272790586</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B299"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B300"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2802,10 +2802,18 @@
         <v>011501272790586</v>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>PROP03</v>
+      </c>
+      <c r="B301" t="str">
+        <v>010408600003397</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B300"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B301"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2810,10 +2810,18 @@
         <v>010408600003397</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>DEXA10</v>
+      </c>
+      <c r="B302" t="str">
+        <v>474430000000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B301"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B302"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B302"/>
+  <dimension ref="A1:B303"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2818,10 +2818,18 @@
         <v>474430000000000</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>VANC03</v>
+      </c>
+      <c r="B303" t="str">
+        <v>011890418021950</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B302"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B303"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Product_ID.xlsx
+++ b/Product_ID.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2826,10 +2826,18 @@
         <v>011890418021950</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>VANC03</v>
+      </c>
+      <c r="B304" t="str">
+        <v>011890418021950</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B303"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B304"/>
   </ignoredErrors>
 </worksheet>
 </file>